--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44257</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44847</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44509</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44745</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44663</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44512</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44536</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44668</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44668</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44699</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44676</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44530</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44665</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,14 +3056,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3113,14 +3113,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>44974</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3132,8 +3132,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>14.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3170,14 +3175,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45883</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3195,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3227,14 +3232,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>45692</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3252,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3284,14 +3289,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44760</v>
+        <v>45264</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3304,7 +3309,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3341,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44404</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3398,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45068</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3423,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3455,14 +3460,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7722-2021</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44242</v>
+        <v>44844</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3480,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>12.3</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3512,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>45665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3532,7 +3537,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3569,14 +3574,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>44697</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3588,8 +3593,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3626,14 +3636,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45092</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3646,7 +3656,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3683,14 +3693,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45397</v>
+        <v>45645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3702,8 +3712,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3740,14 +3755,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3760,7 +3775,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>7.5</v>
+        <v>10.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3797,14 +3812,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45702</v>
+        <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3817,7 +3832,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3854,14 +3869,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3874,7 +3889,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3911,14 +3926,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>45547</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3930,8 +3945,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3968,14 +3988,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44386</v>
+        <v>45628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3988,7 +4008,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4025,14 +4045,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>45264</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4044,13 +4064,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>7.7</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4087,14 +4102,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4107,7 +4122,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>31.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4144,14 +4159,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4179,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>13.2</v>
+        <v>7.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4201,14 +4216,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4236,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4258,14 +4273,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4278,7 +4293,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4315,14 +4330,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4372,14 +4387,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45909</v>
+        <v>44886</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4393,11 +4408,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>19.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4434,14 +4449,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45747</v>
+        <v>45664</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4454,7 +4469,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4491,14 +4506,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44582</v>
+        <v>44354</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4510,8 +4525,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4548,14 +4568,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44582</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4568,7 +4588,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4605,14 +4625,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4624,13 +4644,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4667,14 +4682,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>45702</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4687,7 +4702,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4724,14 +4739,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4744,7 +4759,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4781,14 +4796,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>45909</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4800,8 +4815,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4838,14 +4858,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 7722-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>44242</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4858,7 +4878,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.2</v>
+        <v>12.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4895,14 +4915,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44512</v>
+        <v>44671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4915,7 +4935,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4952,14 +4972,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>45694</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4972,7 +4992,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9.1</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5009,14 +5029,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>44582</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5028,13 +5048,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5071,14 +5086,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45999</v>
+        <v>44582</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5090,13 +5105,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5133,14 +5143,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5153,7 +5163,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5190,14 +5200,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44909</v>
+        <v>44663</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5210,7 +5220,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5247,14 +5257,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45664</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5267,7 +5277,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5304,14 +5314,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5324,7 +5334,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.1</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5361,14 +5371,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5381,7 +5391,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5418,14 +5428,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5437,13 +5447,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5480,14 +5485,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5500,7 +5505,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5537,14 +5542,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44526</v>
+        <v>45167</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5557,7 +5562,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5594,14 +5599,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44671</v>
+        <v>45512</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5614,7 +5619,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5651,14 +5656,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44974</v>
+        <v>44830</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5670,13 +5675,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>14.1</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5713,14 +5713,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45560</v>
+        <v>44257</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5732,8 +5732,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>10.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5770,14 +5775,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5790,7 +5795,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5827,14 +5832,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44887</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5846,8 +5851,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5884,14 +5894,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44398</v>
+        <v>45838</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5905,11 +5915,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5946,14 +5956,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5966,7 +5976,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6003,14 +6013,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6023,7 +6033,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6060,14 +6070,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>45397</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6079,13 +6089,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6122,14 +6127,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44456</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6141,13 +6146,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6184,14 +6184,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45957</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6241,14 +6241,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,8 +6260,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6298,14 +6303,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>44398</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,8 +6322,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6355,14 +6365,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45187</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6374,13 +6384,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6417,14 +6422,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6437,7 +6442,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>6.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6474,14 +6479,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44994</v>
+        <v>45957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6494,7 +6499,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6531,14 +6536,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6552,11 +6557,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>11.6</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6593,14 +6598,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45264</v>
+        <v>44456</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6612,8 +6617,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>15.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6650,14 +6660,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44263</v>
+        <v>44404</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6669,13 +6679,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6712,14 +6717,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>44526</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6732,7 +6737,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6769,14 +6774,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6789,7 +6794,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6826,14 +6831,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45628</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6846,7 +6851,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6883,14 +6888,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6903,7 +6908,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6940,14 +6945,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>44760</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6960,7 +6965,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6997,14 +7002,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7017,7 +7022,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7054,14 +7059,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45512</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7074,7 +7079,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7111,14 +7116,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44354</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7132,11 +7137,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.3</v>
+        <v>11.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7173,14 +7178,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45645</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7192,13 +7197,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7235,14 +7235,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45666</v>
+        <v>44272</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7254,8 +7254,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7292,14 +7297,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7312,7 +7317,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7349,14 +7354,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>44754</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7368,8 +7373,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7406,14 +7416,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44511</v>
+        <v>45368</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7426,7 +7436,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7463,14 +7473,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45429</v>
+        <v>45883</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7483,7 +7493,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7520,14 +7530,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 6191-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45243</v>
+        <v>44234</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7539,13 +7549,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>3.7</v>
+        <v>12</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7582,14 +7587,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7602,7 +7607,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>13.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7639,14 +7644,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44257</v>
+        <v>45666</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7658,13 +7663,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44410</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7758,14 +7758,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7777,8 +7777,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45665</v>
+        <v>45092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7835,7 +7840,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44844</v>
+        <v>45653</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7891,8 +7896,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7929,14 +7939,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45677</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7949,7 +7959,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7986,14 +7996,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44830</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8006,7 +8016,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8043,14 +8053,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45608</v>
+        <v>45560</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8063,7 +8073,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8100,14 +8110,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>44662</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8120,7 +8130,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8157,14 +8167,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>45456</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8177,7 +8187,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8214,14 +8224,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44668</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8234,7 +8244,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8271,14 +8281,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45167</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8291,7 +8301,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8328,14 +8338,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44263</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8347,13 +8357,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8390,14 +8395,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44662</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8410,7 +8415,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8447,14 +8452,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>44668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8467,7 +8472,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8504,14 +8509,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44427</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8523,8 +8528,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8561,14 +8571,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45534</v>
+        <v>45999</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8582,11 +8592,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.2</v>
+        <v>8.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8623,14 +8633,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44754</v>
+        <v>44427</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8642,13 +8652,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8692,7 +8697,7 @@
         <v>45230.59002314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8742,14 +8747,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44663</v>
+        <v>45429</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8762,7 +8767,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8799,14 +8804,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>45534</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8818,8 +8823,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8856,14 +8866,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45264</v>
+        <v>45714</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8876,7 +8886,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8913,14 +8923,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>45608</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8933,7 +8943,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.3</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8970,14 +8980,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44781</v>
+        <v>45434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8990,7 +9000,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9027,14 +9037,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44697</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9046,13 +9056,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9089,14 +9094,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9109,7 +9114,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9146,14 +9151,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9166,7 +9171,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9203,14 +9208,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44978</v>
+        <v>44511</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9223,7 +9228,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9260,14 +9265,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44272</v>
+        <v>44781</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9279,13 +9284,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9322,14 +9322,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44790</v>
+        <v>44512</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9379,14 +9379,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>44263</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9441,14 +9441,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9498,14 +9498,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44634</v>
+        <v>44978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9555,14 +9555,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>45068</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9612,14 +9612,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45615</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9631,8 +9631,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.7</v>
+        <v>14.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9669,14 +9674,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9688,13 +9693,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>14.8</v>
+        <v>5.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9731,14 +9731,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44494</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9751,7 +9751,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9788,14 +9788,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45692</v>
+        <v>44988</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9845,14 +9845,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45145</v>
+        <v>45243</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9864,8 +9864,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9902,14 +9907,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44257</v>
+        <v>45625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9923,11 +9928,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>12.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9964,14 +9969,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9984,7 +9989,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10021,14 +10026,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10041,7 +10046,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10085,7 +10090,7 @@
         <v>44622</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10135,14 +10140,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45625</v>
+        <v>45159.42875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10154,13 +10159,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>12.2</v>
+        <v>7.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10197,14 +10197,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45456</v>
+        <v>44386</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10217,7 +10217,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7.5</v>
+        <v>0.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10254,14 +10254,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 6191-2021</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44234</v>
+        <v>44790</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10311,14 +10311,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44456</v>
+        <v>44887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,13 +10330,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>15.7</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10373,14 +10368,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10392,8 +10387,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10430,14 +10430,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45434</v>
+        <v>44263</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10449,8 +10449,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10487,14 +10492,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10507,7 +10512,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10544,14 +10549,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>44634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10564,7 +10569,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10601,14 +10606,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44988</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10621,7 +10626,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10658,14 +10663,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10678,7 +10683,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10715,14 +10720,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45368</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10735,7 +10740,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10772,14 +10777,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44530</v>
+        <v>44909</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10792,7 +10797,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10829,14 +10834,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45714</v>
+        <v>45187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10848,8 +10853,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10886,14 +10896,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45446</v>
+        <v>44257</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10905,8 +10915,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10943,14 +10958,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45159.42875</v>
+        <v>45446</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10963,7 +10978,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11000,14 +11015,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45699</v>
+        <v>45615</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11020,7 +11035,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11057,14 +11072,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11077,7 +11092,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11114,14 +11129,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45653</v>
+        <v>44994</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11133,13 +11148,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11183,7 +11193,7 @@
         <v>45253.55388888889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11233,14 +11243,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45615</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11253,7 +11263,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11290,14 +11300,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11309,8 +11319,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11347,14 +11362,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>44530</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11367,7 +11382,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11404,14 +11419,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45632</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11424,7 +11439,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11461,14 +11476,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44257</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11480,13 +11495,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11523,14 +11533,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45789</v>
+        <v>45747</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11543,7 +11553,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11580,14 +11590,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>44410</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11600,7 +11610,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11637,14 +11647,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 24244-2025</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45796</v>
+        <v>44257</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11662,7 +11672,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11699,14 +11709,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>45632</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11719,7 +11729,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11756,14 +11766,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>45615</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11775,13 +11785,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11818,14 +11823,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44966</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11838,7 +11843,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11875,14 +11880,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11895,7 +11900,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11932,14 +11937,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45660</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11952,7 +11957,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11989,14 +11994,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45628</v>
+        <v>45789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12009,7 +12014,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12053,7 +12058,7 @@
         <v>45184</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12103,14 +12108,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45547</v>
+        <v>45628</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12122,13 +12127,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12165,14 +12165,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>44966</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>31.3</v>
+        <v>2.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12222,14 +12222,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>45660</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12279,14 +12279,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12298,8 +12298,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>7.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12336,14 +12341,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44886</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12355,13 +12360,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>19.4</v>
+        <v>4.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12398,14 +12398,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45838</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12417,13 +12417,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12460,14 +12455,14 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>45796</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12479,8 +12474,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44257</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44847</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44509</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44745</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44663</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44512</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44536</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44668</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44668</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44699</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44676</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44530</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44665</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45740.4009375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44974</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45209.67546296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>45692</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>45264</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>45264.64980324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>45198.48434027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44844</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44697</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45358.58592592592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44917.70034722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45547</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45264</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>45804.70619212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>45731.64170138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45232.31501157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>45817.67681712963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45817.67597222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44886</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>45664</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44354</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>44349.60321759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45699.6603587963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45702</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45758.43435185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45909</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44242</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45694</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44582</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44582</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45000.52891203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44663</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45919.47606481481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45919.43583333334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>45919.46068287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44516.80796296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>45919.4250925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>45167</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>45512</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44830</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44257</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45593.48681712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45614.38210648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45838</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45933.36171296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45932.34612268519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45397</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44909.42104166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45264.58667824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45936.41018518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>44398</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>45853.39233796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>45952.57976851852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>45957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>45954.63483796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44456</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44404</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44526</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44909.51736111111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>45111.32628472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44427.33684027778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44760</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>45679.48306712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>45742.65028935186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45965.57278935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45962.96883101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44272</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45883.46337962963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44754</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>45368</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45883</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44234</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45983.87262731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45666</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45983.86821759259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45986.73283564814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>45092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45653</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>46030.58844907407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>46030.60145833333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45560</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>44662</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45456</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>45264.57714120371</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45385.8783912037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>45012.53770833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>46037.63155092593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>44668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>46038.57665509259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>45999</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44427</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45230.59002314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45429</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45534</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45714</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45608</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44602.42467592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45706.59180555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>46010.67253472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44511</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44781</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44512</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44263</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45006.57474537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45068</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44960.30481481482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>45699.66982638889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>45379.39054398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44988</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>45243</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45109.69238425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45408.4725925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44622</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>45159.42875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44386</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44790</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44886.90611111111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44263</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>45230.60912037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45194.46662037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44909.41993055555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44257</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>45446</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45615</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>45699</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>44994</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>45253.55388888889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45341.75035879629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44530</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45448.32826388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45741.47040509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45747</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44410</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44257</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>45632</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45615</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45012.5225462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45629.56054398148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45789.59186342593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45184</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45628</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44966</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45660</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45796.64483796297</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45290.69128472222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>45588.37608796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>45796</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44257</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44847</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44509</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44745</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44663</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44512</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44536</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44668</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44668</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44699</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44676</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44530</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44665</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>45740.4009375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>44974</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45209.67546296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>45692</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>45264</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>45264.64980324074</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>45198.48434027778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44844</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>44697</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>45358.58592592592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45645</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>44917.70034722222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>44494</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45677</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45547</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45628</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>45264</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>45804.70619212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>45731.64170138889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>45232.31501157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>45817.67681712963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>45817.67597222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44886</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>45664</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44354</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>44349.60321759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45699.6603587963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45702</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45758.43435185185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45909</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>44242</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>44671</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45694</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>44582</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>44582</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>45000.52891203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44663</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45919.47606481481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45919.43583333334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         <v>45919.46068287037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>44516.80796296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>45919.4250925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5549,7 +5549,7 @@
         <v>45167</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         <v>45512</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5663,7 +5663,7 @@
         <v>44830</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>44257</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45593.48681712963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45614.38210648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45838</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45933.36171296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45932.34612268519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45397</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6134,7 +6134,7 @@
         <v>44909.42104166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6191,7 +6191,7 @@
         <v>45264.58667824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45936.41018518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>44398</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>45853.39233796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>45952.57976851852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>45957</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>45954.63483796296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         <v>44456</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44404</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44526</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44909.51736111111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>45111.32628472222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44427.33684027778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44760</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>45679.48306712963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         <v>45742.65028935186</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>45965.57278935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
         <v>45962.96883101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7242,7 +7242,7 @@
         <v>44272</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>45883.46337962963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44754</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>45368</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45883</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44234</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45983.87262731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45666</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45983.86821759259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45986.73283564814</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>45092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>45653</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>46030.58844907407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>46030.60145833333</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45560</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>44662</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45456</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>45264.57714120371</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>45385.8783912037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>45012.53770833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>46037.63155092593</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>44668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>46038.57665509259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>45999</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44427</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>45230.59002314815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>45429</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>45534</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45714</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>45608</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45434</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44602.42467592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45706.59180555555</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>46010.67253472222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44511</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44781</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44512</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44263</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>45006.57474537037</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>45068</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44960.30481481482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>45699.66982638889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>45379.39054398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44988</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>45243</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45625</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>45109.69238425926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10033,7 +10033,7 @@
         <v>45408.4725925926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
         <v>44622</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>45159.42875</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44386</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44790</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         <v>44887</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10375,7 +10375,7 @@
         <v>44886.90611111111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         <v>44263</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>45230.60912037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>45194.46662037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>45145</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10727,7 +10727,7 @@
         <v>44909.41993055555</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44909</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>45187</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44257</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>45446</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45615</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>45699</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>44994</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>45253.55388888889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>45341.75035879629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44456</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44530</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45448.32826388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45741.47040509259</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45747</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44410</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44257</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>45632</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45615</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45012.5225462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45629.56054398148</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45789.59186342593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45789</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45184</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45628</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>44966</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45660</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45796.64483796297</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45290.69128472222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>45588.37608796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>45796</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z204"/>
+  <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44257</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44847</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44509</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44745</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44663</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44512</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44536</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44668</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44668</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44699</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44676</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44530</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44665</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,14 +3056,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>44760</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3113,14 +3113,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44974</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3132,13 +3132,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>14.1</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3175,14 +3170,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3190,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3232,14 +3227,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45692</v>
+        <v>45397</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3247,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3289,14 +3284,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45264</v>
+        <v>45702</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3304,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3341,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3361,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3398,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>44386</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3418,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3460,14 +3455,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44844</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3475,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3517,14 +3512,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45665</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3536,8 +3531,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44697</v>
+        <v>44582</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3593,13 +3593,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3636,14 +3631,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3656,7 +3651,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3693,14 +3688,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45645</v>
+        <v>44512</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3712,13 +3707,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3755,14 +3745,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>45664</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3775,7 +3765,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>10.9</v>
+        <v>2.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3812,14 +3802,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44494</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3832,7 +3822,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3869,14 +3859,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45677</v>
+        <v>44526</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3889,7 +3879,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3926,14 +3916,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45547</v>
+        <v>44671</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3945,13 +3935,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3988,14 +3973,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45628</v>
+        <v>44886</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4007,8 +3992,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>19.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4045,14 +4035,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45264</v>
+        <v>44974</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4064,8 +4054,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>14.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4102,14 +4097,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>45560</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4122,7 +4117,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>31.3</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4159,14 +4154,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4179,7 +4174,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4216,14 +4211,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>44887</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4236,7 +4231,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4273,14 +4268,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4293,7 +4288,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4330,14 +4325,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>45883</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4350,7 +4345,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4387,14 +4382,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44886</v>
+        <v>44456</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4412,7 +4407,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>19.4</v>
+        <v>6.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4449,14 +4444,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45664</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4469,7 +4464,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4506,14 +4501,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44354</v>
+        <v>45838</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4531,7 +4526,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4568,14 +4563,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>45187</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4587,8 +4582,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45264</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45702</v>
+        <v>44263</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4701,8 +4701,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4739,14 +4744,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4759,7 +4764,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4796,14 +4801,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45909</v>
+        <v>45628</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4815,13 +4820,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4858,14 +4858,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7722-2021</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44242</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>12.3</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4915,14 +4915,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44671</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4972,14 +4972,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45694</v>
+        <v>45512</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5029,14 +5029,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44582</v>
+        <v>45909</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5048,8 +5048,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5086,14 +5091,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44582</v>
+        <v>44354</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5105,8 +5110,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5143,14 +5153,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>45645</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5162,8 +5172,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5200,14 +5215,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44663</v>
+        <v>45666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5220,7 +5235,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5257,14 +5272,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5277,7 +5292,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5314,14 +5329,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5334,7 +5349,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5371,14 +5386,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5391,7 +5406,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5428,14 +5443,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5448,7 +5463,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5485,14 +5500,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5505,7 +5520,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5542,14 +5557,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45167</v>
+        <v>45243</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5561,8 +5576,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5599,14 +5619,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45512</v>
+        <v>44257</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5618,8 +5638,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>10.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5656,14 +5681,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44830</v>
+        <v>44410</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5676,7 +5701,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5713,14 +5738,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44257</v>
+        <v>45665</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5732,13 +5757,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>10.3</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5775,14 +5795,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>44844</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5795,7 +5815,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5832,14 +5852,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5851,13 +5871,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5894,14 +5909,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45838</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5911,11 +5926,6 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>ARBOGA</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -5963,7 +5973,7 @@
         <v>45933.36171296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6013,14 +6023,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,8 +6042,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6070,14 +6085,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45397</v>
+        <v>44404</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6105,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6127,14 +6142,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>45068</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6162,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6184,14 +6199,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>44398</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,8 +6218,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6241,14 +6261,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6260,13 +6280,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6303,14 +6318,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 7722-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44398</v>
+        <v>44242</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6322,13 +6337,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>8.1</v>
+        <v>12.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6365,14 +6375,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6385,7 +6395,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>10.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6422,14 +6432,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45092</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6442,7 +6452,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6479,14 +6489,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45957</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6499,7 +6509,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6536,14 +6546,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6555,13 +6565,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6598,14 +6603,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44456</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6619,11 +6624,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>15.7</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6660,14 +6665,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44404</v>
+        <v>45957</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6680,7 +6685,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6717,14 +6722,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44526</v>
+        <v>45747</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6737,7 +6742,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6774,14 +6779,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6794,7 +6799,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6831,14 +6836,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6850,8 +6855,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>11.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6888,14 +6898,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6908,7 +6918,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6945,14 +6955,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44760</v>
+        <v>44909</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6965,7 +6975,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7002,14 +7012,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7022,7 +7032,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7059,14 +7069,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>44994</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7079,7 +7089,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7116,14 +7126,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7135,13 +7145,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>11.6</v>
+        <v>4.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7178,14 +7183,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7198,7 +7203,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7235,14 +7240,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44272</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7254,13 +7259,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7297,14 +7297,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7354,14 +7354,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44754</v>
+        <v>44511</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7373,13 +7373,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>8.800000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7416,14 +7411,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45368</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7435,8 +7430,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>4.8</v>
+        <v>7.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7473,14 +7473,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45883</v>
+        <v>45429</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 6191-2021</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44234</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>12</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>45983.87262731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7644,14 +7644,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45666</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7758,14 +7758,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7777,13 +7777,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7820,14 +7815,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45092</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7840,7 +7835,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7877,14 +7872,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45653</v>
+        <v>45677</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,13 +7891,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7939,14 +7929,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7959,7 +7949,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7996,14 +7986,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>44830</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8016,7 +8006,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8053,14 +8043,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45560</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8072,8 +8062,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8110,14 +8105,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44662</v>
+        <v>45608</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8130,7 +8125,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8167,14 +8162,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45456</v>
+        <v>45999</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8186,8 +8181,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8224,14 +8224,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8281,14 +8281,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8338,14 +8338,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>44668</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8395,14 +8395,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>45167</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8452,14 +8452,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44668</v>
+        <v>44263</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,8 +8471,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8509,14 +8514,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>44662</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8528,13 +8533,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8571,14 +8571,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45999</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8590,13 +8590,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>8.6</v>
+        <v>2.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8640,7 +8635,7 @@
         <v>44427</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8690,14 +8685,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>45534</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8709,8 +8704,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8747,14 +8747,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45429</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8804,14 +8804,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45534</v>
+        <v>44754</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8825,11 +8825,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8866,14 +8866,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45714</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8923,14 +8923,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45608</v>
+        <v>44663</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8980,14 +8980,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45434</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9000,7 +9000,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9037,14 +9037,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>45264</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9094,14 +9094,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9151,14 +9151,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>44781</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9208,14 +9208,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44511</v>
+        <v>44697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9227,8 +9227,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9265,14 +9270,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44781</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9285,7 +9290,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9322,14 +9327,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44512</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9342,7 +9347,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9379,14 +9384,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44263</v>
+        <v>44978</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9398,13 +9403,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9441,14 +9441,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>44272</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9460,8 +9460,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9498,14 +9503,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44978</v>
+        <v>44790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9518,7 +9523,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9555,14 +9560,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45068</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9574,8 +9579,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9612,14 +9622,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9631,13 +9641,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>14.8</v>
+        <v>0.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9674,14 +9679,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>44634</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9694,7 +9699,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9731,14 +9736,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9751,7 +9756,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9788,14 +9793,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44988</v>
+        <v>45615</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9808,7 +9813,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9845,14 +9850,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45243</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9866,11 +9871,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.7</v>
+        <v>14.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9907,14 +9912,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45625</v>
+        <v>44494</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9926,13 +9931,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>12.2</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9969,14 +9969,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>45692</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10026,14 +10026,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>45145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10083,14 +10083,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44622</v>
+        <v>44257</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10102,8 +10102,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10140,14 +10145,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45159.42875</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10160,7 +10165,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10197,14 +10202,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44386</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10217,7 +10222,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10254,14 +10259,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44790</v>
+        <v>44622</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10274,7 +10279,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10311,14 +10316,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44887</v>
+        <v>45625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10330,8 +10335,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>12.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10368,14 +10378,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>45456</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,13 +10397,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10430,14 +10435,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44263</v>
+        <v>44456</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10451,11 +10456,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>15.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10492,14 +10497,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10512,7 +10517,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10549,14 +10554,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44634</v>
+        <v>45434</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10569,7 +10574,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10606,14 +10611,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10626,7 +10631,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10663,14 +10668,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45145</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10683,7 +10688,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10720,14 +10725,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>44988</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10740,7 +10745,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10777,14 +10782,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44909</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10797,7 +10802,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10834,14 +10839,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45187</v>
+        <v>45368</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10853,13 +10858,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10896,14 +10896,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44257</v>
+        <v>44530</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10915,13 +10915,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10958,14 +10953,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45446</v>
+        <v>45714</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10978,7 +10973,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>9.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11015,14 +11010,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45615</v>
+        <v>45446</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11035,7 +11030,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11072,14 +11067,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45699</v>
+        <v>45159.42875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11092,7 +11087,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11129,14 +11124,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44994</v>
+        <v>45699</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11149,7 +11144,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11186,14 +11181,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>45694</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11206,7 +11201,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11243,14 +11238,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>45653</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11262,8 +11257,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11300,14 +11300,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44456</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11319,13 +11319,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11362,14 +11357,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44530</v>
+        <v>45615</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11382,7 +11377,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11419,14 +11414,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11439,7 +11434,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11476,14 +11471,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11496,7 +11491,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11533,14 +11528,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45747</v>
+        <v>45632</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11553,7 +11548,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11590,14 +11585,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44410</v>
+        <v>44257</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11609,8 +11604,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11647,14 +11647,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44257</v>
+        <v>45789</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11666,13 +11666,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11709,14 +11704,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45632</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11729,7 +11724,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11766,14 +11761,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45615</v>
+        <v>45796</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11785,8 +11780,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11823,14 +11823,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11880,14 +11880,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11899,8 +11899,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11937,14 +11942,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>44966</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11957,7 +11962,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11994,14 +11999,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45789</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12019,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12051,14 +12056,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45184</v>
+        <v>45660</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12071,7 +12076,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12115,7 +12120,7 @@
         <v>45628</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12165,14 +12170,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44966</v>
+        <v>45184</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12190,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12222,14 +12227,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45660</v>
+        <v>45547</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12241,8 +12246,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12279,14 +12289,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12298,13 +12308,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>7.8</v>
+        <v>31.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12341,14 +12346,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12361,7 +12366,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12395,17 +12400,17 @@
       </c>
       <c r="R202" s="2" t="inlineStr"/>
     </row>
-    <row r="203" ht="15" customHeight="1">
+    <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12418,7 +12423,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12451,68 +12456,6 @@
         <v>0</v>
       </c>
       <c r="R203" s="2" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>A 24244-2025</t>
-        </is>
-      </c>
-      <c r="B204" s="1" t="n">
-        <v>45796</v>
-      </c>
-      <c r="C204" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>ARBOGA</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>0</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0</v>
-      </c>
-      <c r="L204" t="n">
-        <v>0</v>
-      </c>
-      <c r="M204" t="n">
-        <v>0</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0</v>
-      </c>
-      <c r="P204" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q204" t="n">
-        <v>0</v>
-      </c>
-      <c r="R204" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44257</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44847</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44509</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44745</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44663</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44512</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44536</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44668</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44668</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44699</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44676</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44530</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44665</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>44341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3056,14 +3056,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44760</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3113,14 +3113,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>45446</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3170,14 +3170,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>45615</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3227,14 +3227,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45397</v>
+        <v>45699</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3284,14 +3284,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45702</v>
+        <v>44974</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3303,8 +3303,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>14.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3341,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3361,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3398,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44386</v>
+        <v>44994</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3418,7 +3423,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3455,14 +3460,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>45692</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3475,7 +3480,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3512,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3531,13 +3536,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44582</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3631,14 +3631,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44582</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3688,14 +3688,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44512</v>
+        <v>45264</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3745,14 +3745,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45664</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3802,14 +3802,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>44456</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3821,8 +3821,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3859,14 +3864,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44526</v>
+        <v>44530</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3884,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3916,14 +3921,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44671</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3941,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3973,14 +3978,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44886</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3992,13 +3997,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>19.4</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4035,14 +4035,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44974</v>
+        <v>44844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4054,13 +4054,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>14.1</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4097,14 +4092,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45560</v>
+        <v>45747</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4117,7 +4112,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4154,14 +4149,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>45665</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4174,7 +4169,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4211,14 +4206,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44887</v>
+        <v>44410</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4231,7 +4226,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4268,14 +4263,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>44697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4287,8 +4282,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4325,14 +4325,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45883</v>
+        <v>45909</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4344,8 +4344,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>9.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4382,14 +4387,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44456</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4401,13 +4406,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4444,14 +4444,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>45645</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,8 +4463,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4501,14 +4506,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45838</v>
+        <v>44257</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4522,11 +4527,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4563,14 +4568,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45187</v>
+        <v>45632</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4582,13 +4587,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45264</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>10.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44263</v>
+        <v>45615</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4701,13 +4701,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4744,14 +4739,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>44494</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4764,7 +4759,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4801,14 +4796,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45628</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4821,7 +4816,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4858,14 +4853,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4878,7 +4873,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4915,14 +4910,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4935,7 +4930,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4972,14 +4967,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45512</v>
+        <v>45677</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4992,7 +4987,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5029,14 +5024,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45909</v>
+        <v>45789</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5048,13 +5043,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5091,14 +5081,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44354</v>
+        <v>45628</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5110,13 +5100,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5153,14 +5138,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45645</v>
+        <v>45264</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5172,13 +5157,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5215,14 +5195,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45666</v>
+        <v>45184</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5235,7 +5215,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5272,14 +5252,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>45628</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5292,7 +5272,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5329,14 +5309,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>44966</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5349,7 +5329,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5386,14 +5366,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45660</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5386,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5443,14 +5423,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5462,8 +5442,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5500,14 +5485,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5520,7 +5505,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5557,14 +5542,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45243</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,13 +5561,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5619,14 +5599,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44257</v>
+        <v>45796</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5644,7 +5624,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>10.3</v>
+        <v>4.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5681,14 +5661,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44410</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5701,7 +5681,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5738,14 +5718,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45665</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5758,7 +5738,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5795,14 +5775,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44844</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5815,7 +5795,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5852,14 +5832,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5872,7 +5852,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5909,14 +5889,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5929,7 +5909,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5966,14 +5946,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5986,7 +5966,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6023,14 +6003,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>45547</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6048,7 +6028,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6085,14 +6065,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44404</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6105,7 +6085,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.1</v>
+        <v>31.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6142,14 +6122,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45068</v>
+        <v>45664</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6162,7 +6142,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6199,14 +6179,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44398</v>
+        <v>44354</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6220,11 +6200,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.1</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6261,14 +6241,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6281,7 +6261,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6318,14 +6298,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7722-2021</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44242</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6338,7 +6318,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>12.3</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6375,14 +6355,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>45702</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6395,7 +6375,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6432,14 +6412,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45092</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6452,7 +6432,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6489,14 +6469,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6509,7 +6489,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.5</v>
+        <v>0.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6546,14 +6526,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6566,7 +6546,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6603,14 +6583,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>44886</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6624,11 +6604,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>19.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6665,14 +6645,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 7722-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45957</v>
+        <v>44242</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6685,7 +6665,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6722,14 +6702,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45747</v>
+        <v>44671</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6742,7 +6722,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6779,14 +6759,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>45694</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6799,7 +6779,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6836,14 +6816,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>44582</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6855,13 +6835,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>11.6</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6898,14 +6873,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>44582</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6918,7 +6893,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6955,14 +6930,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44909</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6975,7 +6950,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7012,14 +6987,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>44663</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7032,7 +7007,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7069,14 +7044,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44994</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7089,7 +7064,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7126,14 +7101,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>45167</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7146,7 +7121,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>7.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7183,14 +7158,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>45512</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7203,7 +7178,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7240,14 +7215,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>44830</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7260,7 +7235,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7297,14 +7272,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>44257</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7316,8 +7291,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>10.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7354,14 +7334,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44511</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7374,7 +7354,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7411,14 +7391,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7430,13 +7410,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>7.7</v>
+        <v>5.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7473,14 +7448,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45429</v>
+        <v>45838</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7492,8 +7467,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7530,14 +7510,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7550,7 +7530,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7587,14 +7567,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7606,8 +7586,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>13.2</v>
+        <v>5.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7644,14 +7629,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7663,8 +7648,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7701,14 +7691,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>45397</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7721,7 +7711,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7758,14 +7748,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7778,7 +7768,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7815,14 +7805,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7835,7 +7825,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7872,14 +7862,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45677</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7892,7 +7882,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7929,14 +7919,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>44456</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7948,8 +7938,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>9.1</v>
+        <v>15.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7986,14 +7981,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44830</v>
+        <v>44398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8005,8 +8000,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>8.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8043,14 +8043,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>44404</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8062,13 +8062,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8105,14 +8100,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45608</v>
+        <v>44526</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8125,7 +8120,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8162,14 +8157,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45999</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8181,13 +8176,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>8.6</v>
+        <v>2.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8224,14 +8214,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8244,7 +8234,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8281,14 +8271,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8301,7 +8291,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8338,14 +8328,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44668</v>
+        <v>44760</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8358,7 +8348,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8395,14 +8385,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45167</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8415,7 +8405,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8452,14 +8442,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44263</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8471,13 +8461,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8514,14 +8499,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44662</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8534,7 +8519,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8571,14 +8556,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>45883</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8576,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8628,14 +8613,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44427</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8648,7 +8633,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>6.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8685,14 +8670,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45534</v>
+        <v>45957</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8704,13 +8689,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8747,14 +8727,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8766,8 +8746,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8804,14 +8789,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44754</v>
+        <v>44272</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8825,11 +8810,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>8.800000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8866,14 +8851,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>44754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8885,8 +8870,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8923,14 +8913,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44663</v>
+        <v>45368</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8943,7 +8933,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8980,14 +8970,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8999,8 +8989,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>11.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9037,14 +9032,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45264</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9057,7 +9052,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9094,14 +9089,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>45666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9114,7 +9109,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9151,14 +9146,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44781</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9171,7 +9166,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>13.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9208,14 +9203,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44697</v>
+        <v>45092</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9225,11 +9220,6 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>ARBOGA</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -9270,14 +9260,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9290,7 +9280,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9327,14 +9317,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>45653</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9346,8 +9336,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9384,14 +9379,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44978</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9403,8 +9398,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>3.6</v>
+        <v>7.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9441,14 +9441,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44272</v>
+        <v>45560</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9460,13 +9460,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9503,14 +9498,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44790</v>
+        <v>44662</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9523,7 +9518,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9560,14 +9555,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9579,13 +9574,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9622,14 +9612,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9642,7 +9632,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9679,14 +9669,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44634</v>
+        <v>45456</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9699,7 +9689,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9736,14 +9726,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9756,7 +9746,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9793,14 +9783,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45615</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9813,7 +9803,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9850,14 +9840,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9869,13 +9859,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>14.8</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9912,14 +9897,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44494</v>
+        <v>44668</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9969,14 +9954,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45692</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9989,7 +9974,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.2</v>
+        <v>9.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10026,14 +10011,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45145</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10045,8 +10030,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10083,14 +10073,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44257</v>
+        <v>45999</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10104,11 +10094,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10145,14 +10135,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>44427</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10165,7 +10155,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10202,14 +10192,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10222,7 +10212,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10259,14 +10249,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44622</v>
+        <v>45429</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10279,7 +10269,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10316,14 +10306,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45625</v>
+        <v>45534</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10337,11 +10327,11 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>12.2</v>
+        <v>3.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10378,14 +10368,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45456</v>
+        <v>45714</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10398,7 +10388,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10435,14 +10425,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44456</v>
+        <v>45608</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10454,13 +10444,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>15.7</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10497,14 +10482,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>45434</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10517,7 +10502,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10554,14 +10539,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45434</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10574,7 +10559,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10611,14 +10596,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10631,7 +10616,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10668,14 +10653,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>44511</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10688,7 +10673,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10725,14 +10710,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44988</v>
+        <v>44781</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10745,7 +10730,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10782,14 +10767,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10802,7 +10787,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10839,14 +10824,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45368</v>
+        <v>44512</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10859,7 +10844,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10896,14 +10881,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44530</v>
+        <v>44263</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10915,8 +10900,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10953,14 +10943,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45714</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10973,7 +10963,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11010,14 +11000,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45446</v>
+        <v>44978</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11030,7 +11020,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>9.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11067,14 +11057,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45159.42875</v>
+        <v>45068</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11087,7 +11077,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>7.3</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11124,14 +11114,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45699</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11143,8 +11133,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>1.3</v>
+        <v>14.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11181,14 +11176,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45694</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11201,7 +11196,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11238,14 +11233,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45653</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11255,11 +11250,6 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>ARBOGA</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -11300,14 +11290,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>44988</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11320,7 +11310,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11357,14 +11347,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45615</v>
+        <v>45243</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11376,8 +11366,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11414,14 +11409,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>45625</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11433,8 +11428,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>12.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11471,14 +11471,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11528,14 +11528,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45632</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11585,14 +11585,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44257</v>
+        <v>44622</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11604,13 +11604,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11647,14 +11642,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45789</v>
+        <v>45159.42875</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11667,7 +11662,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11704,14 +11699,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>44386</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11724,7 +11719,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11761,14 +11756,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 24244-2025</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45796</v>
+        <v>44790</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11780,13 +11775,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11823,14 +11813,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>44887</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11843,7 +11833,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11880,14 +11870,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11901,11 +11891,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>7.8</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11942,14 +11932,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44966</v>
+        <v>44263</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11961,8 +11951,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11999,14 +11994,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12019,7 +12014,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12056,14 +12051,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45660</v>
+        <v>44634</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12076,7 +12071,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12113,14 +12108,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45628</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12133,7 +12128,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12170,14 +12165,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45184</v>
+        <v>45145</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12190,7 +12185,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12227,14 +12222,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45547</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12246,13 +12241,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12289,14 +12279,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12309,7 +12299,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>31.3</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12346,14 +12336,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>45187</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12365,8 +12355,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12403,14 +12398,14 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>44257</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12422,8 +12417,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44257</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44847</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44509</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44745</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2082,14 +2082,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15776-2022</t>
+          <t>A 42338-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44663</v>
+        <v>44427.42277777778</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2139,14 +2139,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 64839-2021</t>
+          <t>A 15776-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44512</v>
+        <v>44663</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2196,14 +2196,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11636-2021</t>
+          <t>A 20445-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44264</v>
+        <v>44699</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2253,14 +2253,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 70266-2021</t>
+          <t>A 64839-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44536</v>
+        <v>44512</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2272,13 +2272,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2315,14 +2310,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16174-2022</t>
+          <t>A 22154-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44668</v>
+        <v>44325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2335,7 +2330,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>19.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2372,14 +2367,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16175-2022</t>
+          <t>A 69169-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44668</v>
+        <v>44530</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2392,7 +2387,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2429,14 +2424,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20445-2022</t>
+          <t>A 16116-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44699</v>
+        <v>44665</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2444,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2493,7 +2488,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2545,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2602,7 @@
         <v>44676</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2659,7 @@
         <v>44336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2714,14 +2709,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42338-2021</t>
+          <t>A 25052-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44427.42277777778</v>
+        <v>44341</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2729,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2771,14 +2766,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22154-2021</t>
+          <t>A 11636-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44325</v>
+        <v>44264</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2786,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>19.3</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2828,14 +2823,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 69169-2021</t>
+          <t>A 16173-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44530</v>
+        <v>44668</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2843,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2885,14 +2880,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16116-2022</t>
+          <t>A 70266-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44665</v>
+        <v>44536</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2904,8 +2899,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2942,14 +2942,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25052-2021</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44341</v>
+        <v>44404</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>5.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2999,14 +2999,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16173-2022</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44668</v>
+        <v>44582</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3056,14 +3056,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>44582</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3113,14 +3113,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45446</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3132,8 +3132,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>9.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3170,14 +3175,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45615</v>
+        <v>45068</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3195,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3227,14 +3232,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45699</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3252,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3284,14 +3289,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44974</v>
+        <v>44760</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3303,13 +3308,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>14.1</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>44512</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 7722-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44994</v>
+        <v>44242</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.4</v>
+        <v>12.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3460,14 +3460,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45692</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>10.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3517,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>45092</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3631,14 +3631,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3688,14 +3688,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45264</v>
+        <v>45397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>45264.64980324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3802,14 +3802,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44456</v>
+        <v>45702</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3821,13 +3821,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3864,14 +3859,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44530</v>
+        <v>45664</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3884,7 +3879,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3921,14 +3916,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>45747</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3941,7 +3936,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3978,14 +3973,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 16174-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>44668</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3998,7 +3993,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4035,14 +4030,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 16175-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44844</v>
+        <v>44668</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4055,7 +4050,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4092,14 +4087,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45747</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4112,7 +4107,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4149,14 +4144,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45665</v>
+        <v>44909</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4169,7 +4164,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4206,14 +4201,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44410</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4226,7 +4221,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4263,14 +4258,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44697</v>
+        <v>44386</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4282,13 +4277,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4325,14 +4315,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45909</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4344,13 +4334,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4387,14 +4372,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4407,7 +4392,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4444,14 +4429,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45645</v>
+        <v>44526</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,13 +4448,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4506,14 +4486,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44257</v>
+        <v>44671</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4525,13 +4505,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4568,14 +4543,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45632</v>
+        <v>44994</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4588,7 +4563,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4625,14 +4600,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>44974</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4644,8 +4619,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>10.9</v>
+        <v>14.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4682,14 +4662,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45615</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4702,7 +4682,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4739,14 +4719,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44494</v>
+        <v>45560</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4759,7 +4739,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4796,14 +4776,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4816,7 +4796,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4853,14 +4833,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4873,7 +4853,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4910,14 +4890,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4930,7 +4910,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4967,14 +4947,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45677</v>
+        <v>44887</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4987,7 +4967,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5024,14 +5004,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45789</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5044,7 +5024,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5081,14 +5061,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45628</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5101,7 +5081,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5138,14 +5118,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45264</v>
+        <v>44456</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5157,8 +5137,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5195,14 +5180,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45184</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5215,7 +5200,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5252,14 +5237,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45628</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5272,7 +5257,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.2</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5309,14 +5294,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44966</v>
+        <v>44886</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5328,8 +5313,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>19.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5366,14 +5356,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45660</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5386,7 +5376,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5423,14 +5413,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>44511</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5442,13 +5432,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>7.8</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5485,14 +5470,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>45187</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5504,8 +5489,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5542,14 +5532,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>45429</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5562,7 +5552,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5599,14 +5589,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24244-2025</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45796</v>
+        <v>45264</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5618,13 +5608,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5661,14 +5646,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>44263</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5680,8 +5665,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5718,14 +5708,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5738,7 +5728,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5775,14 +5765,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>44790</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5795,7 +5785,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5832,14 +5822,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5852,7 +5842,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5889,14 +5879,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5909,7 +5899,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5946,14 +5936,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>45628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5966,7 +5956,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6003,14 +5993,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45547</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6022,13 +6012,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6065,14 +6050,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>45677</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6085,7 +6070,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>31.3</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6122,14 +6107,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45664</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6141,8 +6126,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6179,14 +6169,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44354</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6198,13 +6188,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6241,14 +6226,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>44634</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6261,7 +6246,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6298,14 +6283,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45838</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6317,8 +6302,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6355,14 +6345,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45702</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6375,7 +6365,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6412,14 +6402,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>45615</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6432,7 +6422,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6469,14 +6459,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>45512</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6489,7 +6479,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6526,14 +6516,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6545,8 +6535,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>14.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6583,14 +6578,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44886</v>
+        <v>44830</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,13 +6597,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>19.4</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6645,14 +6635,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7722-2021</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44242</v>
+        <v>45608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6665,7 +6655,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>12.3</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6702,14 +6692,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44671</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6722,7 +6712,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6759,14 +6749,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45694</v>
+        <v>44354</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6778,8 +6768,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6816,14 +6811,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44582</v>
+        <v>45645</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6835,8 +6830,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6873,14 +6873,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44582</v>
+        <v>45666</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6930,14 +6930,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>44494</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6987,14 +6987,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44663</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7044,14 +7044,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7064,7 +7064,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7101,14 +7101,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45167</v>
+        <v>44668</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7158,14 +7158,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45512</v>
+        <v>45167</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7215,14 +7215,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44830</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7272,14 +7272,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44257</v>
+        <v>44263</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.3</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7334,14 +7334,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>44662</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7391,14 +7391,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45243</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7410,8 +7410,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7448,14 +7453,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45838</v>
+        <v>44257</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7469,11 +7474,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.1</v>
+        <v>10.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7510,14 +7515,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>44410</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7530,7 +7535,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7567,14 +7572,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>45665</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7586,13 +7591,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7629,14 +7629,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7648,13 +7648,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7691,14 +7686,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45397</v>
+        <v>44427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7711,7 +7706,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7748,14 +7743,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>45534</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7767,8 +7762,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7805,14 +7805,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>44844</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7862,14 +7862,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>44754</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7881,8 +7881,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7919,14 +7924,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44456</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7938,13 +7943,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>15.7</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7981,14 +7981,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44398</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8000,13 +8000,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>8.1</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8043,14 +8038,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44404</v>
+        <v>44663</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8063,7 +8058,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8100,14 +8095,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44526</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8120,7 +8115,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8157,14 +8152,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>45264</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8177,7 +8172,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8214,14 +8209,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8234,7 +8229,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8271,14 +8266,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>44781</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8291,7 +8286,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8328,14 +8323,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44760</v>
+        <v>44697</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8347,8 +8342,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8385,14 +8385,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45692</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8442,14 +8442,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8499,14 +8499,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>45145</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8556,14 +8556,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45883</v>
+        <v>44257</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8575,8 +8575,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>9.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8613,14 +8618,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8633,7 +8638,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8670,14 +8675,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45957</v>
+        <v>45883</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8690,7 +8695,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8727,14 +8732,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8746,13 +8751,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8789,14 +8789,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44272</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8808,13 +8808,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8851,14 +8846,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44754</v>
+        <v>44622</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8870,13 +8865,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8913,14 +8903,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45368</v>
+        <v>45625</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8932,8 +8922,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>4.8</v>
+        <v>12.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8970,14 +8965,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8989,13 +8984,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>11.6</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9032,14 +9022,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>45456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9052,7 +9042,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>7.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9089,14 +9079,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45666</v>
+        <v>44978</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9109,7 +9099,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9146,14 +9136,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>44456</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9165,8 +9155,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>13.2</v>
+        <v>15.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9203,14 +9198,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45092</v>
+        <v>44272</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9222,8 +9217,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9260,14 +9260,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9317,14 +9317,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45653</v>
+        <v>45434</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9336,13 +9336,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9379,14 +9374,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9398,13 +9393,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9441,14 +9431,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45560</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9461,7 +9451,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9498,14 +9488,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44662</v>
+        <v>44988</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9518,7 +9508,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9555,14 +9545,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9575,7 +9565,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9612,14 +9602,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>45368</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9632,7 +9622,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9669,14 +9659,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45456</v>
+        <v>44530</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9689,7 +9679,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9726,14 +9716,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>45714</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9746,7 +9736,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9783,14 +9773,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>45446</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9803,7 +9793,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9840,14 +9830,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>45909</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9859,8 +9849,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9897,14 +9892,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44668</v>
+        <v>45159.42875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9917,7 +9912,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9954,14 +9949,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>45699</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9974,7 +9969,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10011,14 +10006,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>45694</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10030,13 +10025,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10073,14 +10063,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45999</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10092,13 +10082,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>8.6</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10135,14 +10120,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44427</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10155,7 +10140,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10192,14 +10177,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10212,7 +10197,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10249,14 +10234,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45429</v>
+        <v>45653</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10268,8 +10253,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10306,14 +10296,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45534</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10325,13 +10315,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10368,14 +10353,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45714</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10388,7 +10373,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10425,14 +10410,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45608</v>
+        <v>45615</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10445,7 +10430,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10482,14 +10467,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45434</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10502,7 +10487,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10539,14 +10524,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10559,7 +10544,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10596,14 +10581,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10616,7 +10601,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10653,14 +10638,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44511</v>
+        <v>45632</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10673,7 +10658,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10710,14 +10695,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44781</v>
+        <v>44257</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10729,8 +10714,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10767,14 +10757,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10787,7 +10777,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10824,14 +10814,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44512</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10843,8 +10833,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10881,14 +10876,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44263</v>
+        <v>45789</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10900,13 +10895,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10943,14 +10933,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10963,7 +10953,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11000,14 +10990,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44978</v>
+        <v>44398</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11019,8 +11009,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>3.6</v>
+        <v>8.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11057,14 +11052,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45068</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11077,7 +11072,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>6.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11114,14 +11109,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>45796</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11135,11 +11130,11 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>14.8</v>
+        <v>4.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11176,14 +11171,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11196,7 +11191,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11233,14 +11228,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11252,8 +11247,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>7.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11290,14 +11290,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44988</v>
+        <v>44966</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11347,14 +11347,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45243</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11366,13 +11366,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11409,14 +11404,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45625</v>
+        <v>45660</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11428,13 +11423,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>12.2</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11471,14 +11461,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11490,8 +11480,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11528,14 +11523,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>45628</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11548,7 +11543,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11585,14 +11580,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44622</v>
+        <v>45184</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11605,7 +11600,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11642,14 +11637,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45159.42875</v>
+        <v>45957</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11662,7 +11657,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11699,14 +11694,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44386</v>
+        <v>45547</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11718,8 +11713,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11756,14 +11756,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44790</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11813,14 +11813,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44887</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11832,8 +11832,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.2</v>
+        <v>11.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11870,14 +11875,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11889,13 +11894,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>31.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11932,14 +11932,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44263</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11953,11 +11953,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11994,14 +11994,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12051,14 +12051,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44634</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>13.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12108,14 +12108,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12165,14 +12165,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45145</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12222,14 +12222,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>9.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12279,14 +12279,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44909</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12298,8 +12298,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12336,14 +12341,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45187</v>
+        <v>45999</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12357,11 +12362,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12398,14 +12403,14 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44257</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12417,13 +12422,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44242</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44257</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44847</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44509</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44573</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44242</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44427</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44745</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2082,14 +2082,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42338-2021</t>
+          <t>A 15776-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44427.42277777778</v>
+        <v>44663</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2139,14 +2139,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 15776-2022</t>
+          <t>A 64839-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44663</v>
+        <v>44512</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2196,14 +2196,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 20445-2022</t>
+          <t>A 11636-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44699</v>
+        <v>44264</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2253,14 +2253,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 64839-2021</t>
+          <t>A 70266-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44512</v>
+        <v>44536</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2272,8 +2272,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2310,14 +2315,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 22154-2021</t>
+          <t>A 16174-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44325</v>
+        <v>44668</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2330,7 +2335,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>19.3</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2367,14 +2372,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 69169-2021</t>
+          <t>A 16175-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44530</v>
+        <v>44668</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2387,7 +2392,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>10.5</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2424,14 +2429,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16116-2022</t>
+          <t>A 20445-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44665</v>
+        <v>44699</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2444,7 +2449,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2488,7 +2493,7 @@
         <v>44257</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2545,7 +2550,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2602,7 +2607,7 @@
         <v>44676</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2659,7 +2664,7 @@
         <v>44336</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2709,14 +2714,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25052-2021</t>
+          <t>A 42338-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44341</v>
+        <v>44427.42277777778</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2729,7 +2734,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2766,14 +2771,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 11636-2021</t>
+          <t>A 22154-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44264</v>
+        <v>44325</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2786,7 +2791,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>19.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2823,14 +2828,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 16173-2022</t>
+          <t>A 69169-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44668</v>
+        <v>44530</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2843,7 +2848,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2880,14 +2885,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 70266-2021</t>
+          <t>A 16116-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44536</v>
+        <v>44665</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2899,13 +2904,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2942,14 +2942,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 25052-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44404</v>
+        <v>44341</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2999,14 +2999,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 16173-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44582</v>
+        <v>44668</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3056,14 +3056,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44582</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3113,14 +3113,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>44974</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>14.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3175,14 +3175,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45068</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3232,14 +3232,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>45692</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3289,14 +3289,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44760</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44512</v>
+        <v>45264</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7722-2021</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44242</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>12.3</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3460,14 +3460,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>44844</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>10.9</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3517,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45092</v>
+        <v>45665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>44697</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3593,8 +3593,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3631,14 +3636,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>45645</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3650,8 +3655,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3688,14 +3698,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45397</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3718,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3745,14 +3755,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45184</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3775,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3802,14 +3812,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45702</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3832,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>10.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3859,14 +3869,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45664</v>
+        <v>45628</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3889,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3916,14 +3926,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45747</v>
+        <v>44966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3946,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3973,14 +3983,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16174-2022</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44668</v>
+        <v>44494</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3993,7 +4003,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4030,14 +4040,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16175-2022</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44668</v>
+        <v>45660</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4050,7 +4060,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4087,14 +4097,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4106,8 +4116,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>7.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4144,14 +4159,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44909</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4164,7 +4179,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4201,14 +4216,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4221,7 +4236,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4258,14 +4273,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44386</v>
+        <v>45796</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4277,8 +4292,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4315,14 +4335,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>45677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4335,7 +4355,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4372,14 +4392,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>45547</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4391,8 +4411,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4429,14 +4454,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44526</v>
+        <v>45628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4449,7 +4474,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4486,14 +4511,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44671</v>
+        <v>45264</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4506,7 +4531,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4543,14 +4568,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44994</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4563,7 +4588,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.4</v>
+        <v>31.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4600,14 +4625,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44974</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4619,13 +4644,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>14.1</v>
+        <v>7.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4662,14 +4682,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4682,7 +4702,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4719,14 +4739,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45560</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4739,7 +4759,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4776,14 +4796,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4796,7 +4816,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4833,14 +4853,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>44886</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4852,8 +4872,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.3</v>
+        <v>19.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4890,14 +4915,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>45664</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4910,7 +4935,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4947,14 +4972,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44887</v>
+        <v>44354</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4966,8 +4991,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5004,14 +5034,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5024,7 +5054,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5061,14 +5091,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5081,7 +5111,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5118,14 +5148,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44456</v>
+        <v>45702</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5137,13 +5167,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5180,14 +5205,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5200,7 +5225,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5237,14 +5262,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 7722-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>44242</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5257,7 +5282,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>12.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5294,14 +5319,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44886</v>
+        <v>44671</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5313,13 +5338,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>19.4</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5356,14 +5376,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>45694</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5376,7 +5396,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5413,14 +5433,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44511</v>
+        <v>45838</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5432,8 +5452,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5470,14 +5495,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45187</v>
+        <v>44582</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5489,13 +5514,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5532,14 +5552,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45429</v>
+        <v>44582</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5552,7 +5572,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5589,14 +5609,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45264</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5609,7 +5629,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5646,14 +5666,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44263</v>
+        <v>44663</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5665,13 +5685,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5708,14 +5723,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5728,7 +5743,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5765,14 +5780,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44790</v>
+        <v>45167</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5785,7 +5800,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5822,14 +5837,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>45512</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5842,7 +5857,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5879,14 +5894,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>44830</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5899,7 +5914,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5936,14 +5951,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45628</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5956,7 +5971,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5993,14 +6008,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>44257</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6012,8 +6027,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>10.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6050,14 +6070,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45677</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6070,7 +6090,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6114,7 +6134,7 @@
         <v>45614.38210648148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6169,14 +6189,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>45909</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6188,8 +6208,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6226,14 +6251,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44634</v>
+        <v>45397</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6246,7 +6271,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6283,14 +6308,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45838</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6302,13 +6327,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6345,14 +6365,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6365,7 +6385,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6402,14 +6422,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45615</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6422,7 +6442,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6459,14 +6479,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45512</v>
+        <v>45883</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6479,7 +6499,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6516,14 +6536,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6535,13 +6555,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>14.8</v>
+        <v>2.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6578,14 +6593,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44830</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6598,7 +6613,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6635,14 +6650,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45608</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6655,7 +6670,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6692,14 +6707,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6712,7 +6727,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6749,14 +6764,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44354</v>
+        <v>44456</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6774,7 +6789,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.3</v>
+        <v>15.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6811,14 +6826,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45645</v>
+        <v>44404</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6830,13 +6845,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6873,14 +6883,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45666</v>
+        <v>44526</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6893,7 +6903,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6930,14 +6940,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44494</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6950,7 +6960,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6987,14 +6997,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7007,7 +7017,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7044,14 +7054,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7064,7 +7074,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7101,14 +7111,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44668</v>
+        <v>44760</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7121,7 +7131,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7158,14 +7168,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45167</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7178,7 +7188,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7215,14 +7225,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7235,7 +7245,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7272,14 +7282,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44263</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7291,13 +7301,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7334,14 +7339,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44662</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7354,7 +7359,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7391,14 +7396,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45243</v>
+        <v>44272</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7412,11 +7417,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7453,14 +7458,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44257</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7474,11 +7479,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>10.3</v>
+        <v>5.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7515,14 +7520,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44410</v>
+        <v>44754</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7534,8 +7539,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7572,14 +7582,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45665</v>
+        <v>45368</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7592,7 +7602,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7629,14 +7639,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>44398</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7648,8 +7658,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>8.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7686,14 +7701,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44427</v>
+        <v>45666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7706,7 +7721,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7743,14 +7758,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45534</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7762,13 +7777,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7805,14 +7815,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44844</v>
+        <v>45092</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7825,7 +7835,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7862,14 +7872,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44754</v>
+        <v>45957</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7881,13 +7891,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>8.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7924,14 +7929,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7943,8 +7948,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7981,14 +7991,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>45653</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8000,8 +8010,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8038,14 +8053,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44663</v>
+        <v>45560</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8058,7 +8073,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8095,14 +8110,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>44662</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8115,7 +8130,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8152,14 +8167,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45264</v>
+        <v>45456</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8172,7 +8187,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8209,14 +8224,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8229,7 +8244,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8266,14 +8281,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44781</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8286,7 +8301,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8323,14 +8338,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44697</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8342,13 +8357,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8385,14 +8395,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45692</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8404,8 +8414,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>4.2</v>
+        <v>11.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8442,14 +8457,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>44668</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8462,7 +8477,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8499,14 +8514,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45145</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8519,7 +8534,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8556,14 +8571,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44257</v>
+        <v>44427</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8575,13 +8590,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8618,14 +8628,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8638,7 +8648,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8675,14 +8685,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45883</v>
+        <v>45429</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8695,7 +8705,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>9.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8732,14 +8742,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>45534</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8751,8 +8761,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8789,14 +8804,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45714</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8809,7 +8824,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8846,14 +8861,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44622</v>
+        <v>45608</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8866,7 +8881,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8903,14 +8918,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45625</v>
+        <v>45434</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8922,13 +8937,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>12.2</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8965,14 +8975,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8985,7 +8995,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>13.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9022,14 +9032,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45456</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9042,7 +9052,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9079,14 +9089,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44978</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9099,7 +9109,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9136,14 +9146,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44456</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9155,13 +9165,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>15.7</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9198,14 +9203,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44272</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9219,11 +9224,11 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.6</v>
+        <v>7.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9260,14 +9265,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>44511</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9280,7 +9285,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9317,14 +9322,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45434</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9337,7 +9342,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9374,14 +9379,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9431,14 +9436,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>44781</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9451,7 +9456,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9488,14 +9493,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44988</v>
+        <v>44512</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9508,7 +9513,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9545,14 +9550,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9565,7 +9570,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.8</v>
+        <v>9.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9602,14 +9607,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45368</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9621,8 +9626,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9659,14 +9669,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44530</v>
+        <v>45999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9678,8 +9688,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9716,14 +9731,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45714</v>
+        <v>44263</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9735,8 +9750,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9773,14 +9793,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45446</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9793,7 +9813,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>9.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9830,14 +9850,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45909</v>
+        <v>44978</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9849,13 +9869,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9892,14 +9907,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45159.42875</v>
+        <v>45068</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9912,7 +9927,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>7.3</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9949,14 +9964,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45699</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9968,8 +9983,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>14.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10006,14 +10026,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45694</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10026,7 +10046,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10063,14 +10083,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10083,7 +10103,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10120,14 +10140,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10140,7 +10160,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10177,14 +10197,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>44988</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10197,7 +10217,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10234,14 +10254,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45653</v>
+        <v>45243</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10255,11 +10275,11 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10296,14 +10316,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>45625</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10315,8 +10335,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>2.2</v>
+        <v>12.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10353,14 +10378,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10373,7 +10398,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10410,14 +10435,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45615</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10430,7 +10455,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10467,14 +10492,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>44622</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10487,7 +10512,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10524,14 +10549,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45159.42875</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10544,7 +10569,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10581,14 +10606,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>44386</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10601,7 +10626,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10638,14 +10663,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45632</v>
+        <v>44790</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10658,7 +10683,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10695,14 +10720,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44257</v>
+        <v>44887</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10714,13 +10739,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10757,14 +10777,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10776,8 +10796,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10814,14 +10839,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>44263</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10835,11 +10860,11 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10876,14 +10901,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45789</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10896,7 +10921,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10933,14 +10958,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>44634</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10953,7 +10978,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10990,14 +11015,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44398</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11009,13 +11034,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11052,14 +11072,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45145</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11072,7 +11092,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11109,14 +11129,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 24244-2025</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45796</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11128,13 +11148,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>4.9</v>
+        <v>2.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11171,14 +11186,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>44909</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11191,7 +11206,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11228,14 +11243,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>45187</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11253,7 +11268,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11290,14 +11305,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44966</v>
+        <v>44257</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11309,8 +11324,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11347,14 +11367,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>45446</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11367,7 +11387,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11404,14 +11424,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45660</v>
+        <v>45615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11424,7 +11444,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11461,14 +11481,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>45699</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11480,13 +11500,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11523,14 +11538,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45628</v>
+        <v>44994</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11543,7 +11558,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11580,14 +11595,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45184</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11600,7 +11615,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11637,14 +11652,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45957</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11657,7 +11672,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11694,14 +11709,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45547</v>
+        <v>44456</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11719,7 +11734,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11756,14 +11771,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>44530</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11776,7 +11791,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11813,14 +11828,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11832,13 +11847,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>11.6</v>
+        <v>2.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11875,14 +11885,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11895,7 +11905,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>31.3</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11932,14 +11942,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>45747</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11951,13 +11961,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11994,14 +11999,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>44410</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12014,7 +12019,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12051,14 +12056,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>44257</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12070,8 +12075,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>13.2</v>
+        <v>1.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12108,14 +12118,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>45632</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12128,7 +12138,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12165,14 +12175,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>45615</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12185,7 +12195,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12222,14 +12232,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12242,7 +12252,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12279,14 +12289,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12298,13 +12308,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12341,14 +12346,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45999</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12360,13 +12365,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>8.6</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12403,14 +12403,14 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>45789</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z203"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1450,14 +1450,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 7720-2021</t>
+          <t>A 20271-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44242</v>
+        <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1507,14 +1507,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 20271-2022</t>
+          <t>A 10355-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44698</v>
+        <v>44257</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1526,8 +1526,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1564,14 +1569,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 10355-2021</t>
+          <t>A 46192-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44257</v>
+        <v>44847</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1583,13 +1588,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1626,14 +1626,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 46192-2022</t>
+          <t>A 63811-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44847</v>
+        <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1683,14 +1683,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 63811-2021</t>
+          <t>A 1470-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44509</v>
+        <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1740,14 +1740,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 1470-2022</t>
+          <t>A 42386-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44573</v>
+        <v>44427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1797,14 +1797,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 7712-2021</t>
+          <t>A 28051-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44242</v>
+        <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1854,14 +1854,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 42386-2021</t>
+          <t>A 28054-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44427</v>
+        <v>44355</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1911,14 +1911,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 28051-2021</t>
+          <t>A 27986-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44355</v>
+        <v>44745</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1968,14 +1968,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 28054-2021</t>
+          <t>A 64839-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44355</v>
+        <v>44512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2025,14 +2025,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 27986-2022</t>
+          <t>A 15776-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44745</v>
+        <v>44663</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2082,14 +2082,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15776-2022</t>
+          <t>A 11636-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44663</v>
+        <v>44264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2139,14 +2139,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 64839-2021</t>
+          <t>A 70266-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44512</v>
+        <v>44536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2158,8 +2158,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2196,14 +2201,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 11636-2021</t>
+          <t>A 16174-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44264</v>
+        <v>44668</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2216,7 +2221,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2253,14 +2258,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 70266-2021</t>
+          <t>A 16175-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44536</v>
+        <v>44668</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2272,13 +2277,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2315,14 +2315,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16174-2022</t>
+          <t>A 20445-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44668</v>
+        <v>44699</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2372,14 +2372,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16175-2022</t>
+          <t>A 10447-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44668</v>
+        <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2429,14 +2429,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 20445-2022</t>
+          <t>A 17062-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44699</v>
+        <v>44676</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2486,14 +2486,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 10447-2021</t>
+          <t>A 24870-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44257</v>
+        <v>44728.52351851852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2543,14 +2543,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 24870-2022</t>
+          <t>A 24163-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44728.52351851852</v>
+        <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2600,14 +2600,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 17062-2022</t>
+          <t>A 42338-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44676</v>
+        <v>44427.42277777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2657,14 +2657,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24163-2021</t>
+          <t>A 22154-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44336</v>
+        <v>44325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>19.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2714,14 +2714,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42338-2021</t>
+          <t>A 69169-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44427.42277777778</v>
+        <v>44530</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>10.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2771,14 +2771,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 22154-2021</t>
+          <t>A 16116-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44325</v>
+        <v>44665</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>19.3</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2828,14 +2828,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 69169-2021</t>
+          <t>A 25052-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44530</v>
+        <v>44341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10.5</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2885,14 +2885,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16116-2022</t>
+          <t>A 16173-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2942,14 +2942,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25052-2021</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44341</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2999,14 +2999,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16173-2022</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44668</v>
+        <v>44974</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3018,8 +3018,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>14.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3056,14 +3061,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3081,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3113,14 +3118,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44974</v>
+        <v>45692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3132,13 +3137,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>14.1</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3175,14 +3175,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>45264</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3232,14 +3232,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45692</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3289,14 +3289,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>45665</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45264</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45789</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>44844</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3517,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45665</v>
+        <v>44697</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3536,8 +3536,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3574,14 +3579,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44697</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3593,13 +3598,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3636,14 +3636,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45645</v>
+        <v>45184</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3655,13 +3655,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3698,14 +3693,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>45628</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3718,7 +3713,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3755,14 +3750,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45184</v>
+        <v>45645</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3774,8 +3769,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3812,14 +3812,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>44966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>10.9</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3869,14 +3869,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45628</v>
+        <v>45660</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.2</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3926,14 +3926,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44966</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3945,8 +3945,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>7.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3983,14 +3988,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44494</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4003,7 +4008,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>10.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4040,14 +4045,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45660</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4060,7 +4065,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4097,14 +4102,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4116,13 +4121,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>7.8</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4159,14 +4159,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>44494</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4216,14 +4216,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>45796</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4235,8 +4235,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4273,14 +4278,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24244-2025</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45796</v>
+        <v>45547</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4294,11 +4299,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4342,7 +4347,7 @@
         <v>45677</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4392,14 +4397,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45547</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4411,13 +4416,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>31.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>45628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45264</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4568,14 +4568,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>31.3</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>44886</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4701,8 +4701,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>3.8</v>
+        <v>19.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4739,14 +4744,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4759,7 +4764,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4796,14 +4801,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4816,7 +4821,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4853,14 +4858,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44886</v>
+        <v>45909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4874,11 +4879,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>19.4</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4922,7 +4927,7 @@
         <v>45664</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4972,14 +4977,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44354</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4991,13 +4996,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5034,14 +5034,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>44354</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,8 +5053,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5091,14 +5096,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5111,7 +5116,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5148,14 +5153,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45702</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5168,7 +5173,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5205,14 +5210,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5225,7 +5230,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5262,14 +5267,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7722-2021</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44242</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5282,7 +5287,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>12.3</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5319,14 +5324,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44671</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5339,7 +5344,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5376,14 +5381,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45694</v>
+        <v>45702</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5396,7 +5401,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5433,14 +5438,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45838</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5452,13 +5457,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5495,14 +5495,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44582</v>
+        <v>45838</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5514,8 +5514,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.8</v>
+        <v>5.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5552,14 +5557,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44582</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5572,7 +5577,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5609,14 +5614,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>44671</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5629,7 +5634,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5666,14 +5671,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44663</v>
+        <v>45694</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5686,7 +5691,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5723,14 +5728,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>44582</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5743,7 +5748,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5780,14 +5785,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45167</v>
+        <v>44582</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5800,7 +5805,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5837,14 +5842,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45512</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5857,7 +5862,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5894,14 +5899,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44830</v>
+        <v>44663</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5914,7 +5919,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5951,14 +5956,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5971,7 +5976,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6008,14 +6013,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44257</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6027,13 +6032,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>10.3</v>
+        <v>5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6070,14 +6070,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6090,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6127,14 +6127,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6146,13 +6146,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6189,14 +6184,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45909</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,11 +6205,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6251,14 +6246,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45397</v>
+        <v>45167</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6271,7 +6266,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>7.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6308,14 +6303,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>45512</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6328,7 +6323,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6365,14 +6360,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>44830</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6385,7 +6380,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6422,14 +6417,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>44257</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6441,8 +6436,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>10.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6479,14 +6479,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45883</v>
+        <v>44398</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6498,8 +6498,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>9.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6536,14 +6541,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6556,7 +6561,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6593,14 +6598,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6612,8 +6617,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6650,14 +6660,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6670,7 +6680,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6707,14 +6717,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6727,7 +6737,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6764,14 +6774,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44456</v>
+        <v>45397</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6783,13 +6793,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>15.7</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6826,14 +6831,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44404</v>
+        <v>45957</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6846,7 +6851,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6883,14 +6888,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44526</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6902,8 +6907,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6940,14 +6950,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6997,14 +7007,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7017,7 +7027,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>6.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7054,14 +7064,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>45883</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7074,7 +7084,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7111,14 +7121,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44760</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7130,8 +7140,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.3</v>
+        <v>11.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7168,14 +7183,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7188,7 +7203,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7225,14 +7240,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>44456</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7244,8 +7259,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>15.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7282,14 +7302,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7302,7 +7322,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>13.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7339,14 +7359,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7359,7 +7379,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7396,14 +7416,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44272</v>
+        <v>44404</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7415,13 +7435,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7458,14 +7473,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>44526</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7477,13 +7492,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7520,14 +7530,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44754</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7539,13 +7549,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>8.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7582,14 +7587,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45368</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7602,7 +7607,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7639,14 +7644,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44398</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7658,13 +7663,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45666</v>
+        <v>44760</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7758,14 +7758,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7815,14 +7815,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45092</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7834,8 +7834,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45957</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7892,7 +7897,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7929,14 +7934,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7948,13 +7953,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45653</v>
+        <v>44272</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8012,11 +8012,11 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8053,14 +8053,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45560</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8110,14 +8110,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44662</v>
+        <v>44754</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8129,8 +8129,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8167,14 +8172,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45456</v>
+        <v>45368</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8187,7 +8192,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8224,14 +8229,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8244,7 +8249,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.7</v>
+        <v>9.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8281,14 +8286,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8300,8 +8305,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8338,14 +8348,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>45999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8357,8 +8367,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>8.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8395,14 +8410,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>45666</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8414,13 +8429,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>11.6</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8457,14 +8467,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44668</v>
+        <v>45092</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8477,7 +8487,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8514,14 +8524,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>45653</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8533,8 +8543,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8571,14 +8586,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44427</v>
+        <v>45560</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8591,7 +8606,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8628,14 +8643,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>44662</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8685,14 +8700,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45429</v>
+        <v>45456</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8705,7 +8720,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8742,14 +8757,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45534</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8761,13 +8776,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8804,14 +8814,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45714</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8824,7 +8834,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8861,14 +8871,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45608</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8881,7 +8891,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8918,14 +8928,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45434</v>
+        <v>44668</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8938,7 +8948,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8975,14 +8985,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>44427</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8995,7 +9005,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>13.2</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9032,14 +9042,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9052,7 +9062,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9089,14 +9099,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>45429</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9109,7 +9119,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9146,14 +9156,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45534</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9165,8 +9175,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9203,14 +9218,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>45714</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9222,13 +9237,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9265,14 +9275,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44511</v>
+        <v>45608</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9322,14 +9332,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>45434</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9342,7 +9352,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9379,14 +9389,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9399,7 +9409,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9436,14 +9446,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44781</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9456,7 +9466,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9493,14 +9503,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9513,7 +9523,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9550,14 +9560,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9570,7 +9580,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9607,14 +9617,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>44512</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9626,13 +9636,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9669,14 +9674,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45999</v>
+        <v>44263</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9690,11 +9695,11 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9731,14 +9736,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44263</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,13 +9755,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9793,14 +9793,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>44978</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9850,14 +9850,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44978</v>
+        <v>45068</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9907,14 +9907,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45068</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9926,8 +9926,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>1.9</v>
+        <v>14.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9964,14 +9969,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9983,13 +9988,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>14.8</v>
+        <v>5.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10026,14 +10026,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10083,14 +10083,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>44988</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10103,7 +10103,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10140,14 +10140,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>45243</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10159,8 +10159,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10197,14 +10202,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44988</v>
+        <v>45625</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10216,8 +10221,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>3.5</v>
+        <v>12.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10254,14 +10264,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45243</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10273,13 +10283,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10316,14 +10321,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45625</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10335,13 +10340,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>12.2</v>
+        <v>4.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10378,14 +10378,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>44622</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10435,14 +10435,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>45159.42875</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.2</v>
+        <v>7.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10492,14 +10492,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44622</v>
+        <v>44386</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10549,14 +10549,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45159.42875</v>
+        <v>44790</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10606,14 +10606,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44386</v>
+        <v>44887</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10663,14 +10663,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44790</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10680,6 +10680,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>ARBOGA</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -10720,14 +10725,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44887</v>
+        <v>44263</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10739,8 +10744,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10777,14 +10787,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10796,13 +10806,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10839,14 +10844,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44263</v>
+        <v>44634</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10858,13 +10863,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10901,14 +10901,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10958,14 +10958,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44634</v>
+        <v>45145</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11015,14 +11015,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11072,14 +11072,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45145</v>
+        <v>44909</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11129,14 +11129,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>45187</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11148,8 +11148,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11186,14 +11191,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44909</v>
+        <v>44257</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11205,8 +11210,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11243,14 +11253,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45187</v>
+        <v>45446</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11262,13 +11272,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11305,14 +11310,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44257</v>
+        <v>45615</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11324,13 +11329,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11367,14 +11367,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45446</v>
+        <v>45699</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>9.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11424,14 +11424,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45615</v>
+        <v>44994</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11481,14 +11481,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45699</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11538,14 +11538,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44994</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11595,14 +11595,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>44456</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11614,8 +11614,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>4.3</v>
+        <v>6.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11652,14 +11657,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>44530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11672,7 +11677,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11709,14 +11714,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44456</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11728,13 +11733,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11771,14 +11771,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44530</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11828,14 +11828,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>45747</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11848,7 +11848,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11885,14 +11885,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>44410</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11942,14 +11942,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45747</v>
+        <v>44257</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11961,8 +11961,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11999,14 +12004,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44410</v>
+        <v>45632</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12019,7 +12024,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12056,14 +12061,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44257</v>
+        <v>45615</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12075,13 +12080,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12118,14 +12118,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45632</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12175,14 +12175,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45615</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12229,17 +12229,17 @@
       </c>
       <c r="R199" s="2" t="inlineStr"/>
     </row>
-    <row r="200" ht="15" customHeight="1">
+    <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12285,177 +12285,6 @@
         <v>0</v>
       </c>
       <c r="R200" s="2" t="inlineStr"/>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>A 57256-2024</t>
-        </is>
-      </c>
-      <c r="B201" s="1" t="n">
-        <v>45629.56054398148</v>
-      </c>
-      <c r="C201" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>ARBOGA</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0</v>
-      </c>
-      <c r="L201" t="n">
-        <v>0</v>
-      </c>
-      <c r="M201" t="n">
-        <v>0</v>
-      </c>
-      <c r="N201" t="n">
-        <v>0</v>
-      </c>
-      <c r="O201" t="n">
-        <v>0</v>
-      </c>
-      <c r="P201" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q201" t="n">
-        <v>0</v>
-      </c>
-      <c r="R201" s="2" t="inlineStr"/>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>A 22738-2025</t>
-        </is>
-      </c>
-      <c r="B202" s="1" t="n">
-        <v>45789.59186342593</v>
-      </c>
-      <c r="C202" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>ARBOGA</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>0</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0</v>
-      </c>
-      <c r="L202" t="n">
-        <v>0</v>
-      </c>
-      <c r="M202" t="n">
-        <v>0</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0</v>
-      </c>
-      <c r="O202" t="n">
-        <v>0</v>
-      </c>
-      <c r="P202" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q202" t="n">
-        <v>0</v>
-      </c>
-      <c r="R202" s="2" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>A 22735-2025</t>
-        </is>
-      </c>
-      <c r="B203" s="1" t="n">
-        <v>45789</v>
-      </c>
-      <c r="C203" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>ARBOGA</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0</v>
-      </c>
-      <c r="L203" t="n">
-        <v>0</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0</v>
-      </c>
-      <c r="P203" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q203" t="n">
-        <v>0</v>
-      </c>
-      <c r="R203" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1450,14 +1450,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 20271-2022</t>
+          <t>A 10355-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44698</v>
+        <v>44257</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1469,8 +1469,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1507,14 +1512,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 10355-2021</t>
+          <t>A 20271-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44257</v>
+        <v>44698</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1526,13 +1531,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>44847</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44355</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44745</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1968,14 +1968,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64839-2021</t>
+          <t>A 15776-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44512</v>
+        <v>44663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2025,14 +2025,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 15776-2022</t>
+          <t>A 64839-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44663</v>
+        <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>44264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44668</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44668</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44699</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2429,14 +2429,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 17062-2022</t>
+          <t>A 24870-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44676</v>
+        <v>44728.52351851852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2486,14 +2486,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 24870-2022</t>
+          <t>A 17062-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44728.52351851852</v>
+        <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44530</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44665</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44668</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45740.4009375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44974</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>45209.67546296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>45692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3175,14 +3175,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45264</v>
+        <v>45615</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3232,14 +3232,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3289,14 +3289,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45665</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45789</v>
+        <v>45264</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3460,14 +3460,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44844</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3517,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44697</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3536,13 +3536,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3579,14 +3574,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>45789</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3599,7 +3594,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3636,14 +3631,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45184</v>
+        <v>44844</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3656,7 +3651,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3693,14 +3688,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45628</v>
+        <v>45665</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3713,7 +3708,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3750,14 +3745,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45645</v>
+        <v>45184</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3769,13 +3764,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3812,14 +3802,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44966</v>
+        <v>45628</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3832,7 +3822,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3869,14 +3859,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45660</v>
+        <v>44966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3889,7 +3879,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3926,14 +3916,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>45660</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3945,13 +3935,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>7.8</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3988,14 +3973,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4007,8 +3992,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>10.9</v>
+        <v>7.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4045,14 +4035,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>44697</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4064,8 +4054,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4102,14 +4097,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4122,7 +4117,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4159,14 +4154,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44494</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4179,7 +4174,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4223,7 +4218,7 @@
         <v>45796</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4278,14 +4273,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45547</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4297,13 +4292,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4340,14 +4330,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45677</v>
+        <v>45645</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4359,8 +4349,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4397,14 +4392,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>45547</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4416,8 +4411,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>31.3</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45628</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>10.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45264</v>
+        <v>44494</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>45677</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>31.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44886</v>
+        <v>45628</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4701,13 +4701,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>19.4</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4744,14 +4739,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>45909</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4763,8 +4758,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4801,14 +4801,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>45264</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4858,14 +4858,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45909</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4877,13 +4877,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4920,14 +4915,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45664</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4940,7 +4935,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4977,14 +4972,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>44886</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4996,8 +4991,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.2</v>
+        <v>19.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5034,14 +5034,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44354</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,13 +5053,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>13.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5096,14 +5091,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5116,7 +5111,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>7.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5153,14 +5148,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5173,7 +5168,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5210,14 +5205,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5230,7 +5225,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5267,14 +5262,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5287,7 +5282,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5324,14 +5319,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5344,7 +5339,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5381,14 +5376,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45702</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5401,7 +5396,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5438,14 +5433,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>45664</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5458,7 +5453,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5495,14 +5490,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45838</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5514,13 +5509,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5557,14 +5547,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>44354</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,8 +5566,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5614,14 +5609,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44671</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5634,7 +5629,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5671,14 +5666,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45694</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5691,7 +5686,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5728,14 +5723,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44582</v>
+        <v>45702</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5748,7 +5743,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5785,14 +5780,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44582</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5805,7 +5800,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5842,14 +5837,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5862,7 +5857,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5899,14 +5894,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44663</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5919,7 +5914,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5956,14 +5951,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>45838</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5975,8 +5970,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6013,14 +6013,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,8 +6032,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6070,14 +6075,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>44671</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6090,7 +6095,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6127,14 +6132,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45694</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6147,7 +6152,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6184,14 +6189,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>44582</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6203,13 +6208,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6246,14 +6246,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45167</v>
+        <v>44582</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7.1</v>
+        <v>5.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6303,14 +6303,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45512</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6360,14 +6360,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44830</v>
+        <v>44663</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6417,14 +6417,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44257</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6436,13 +6436,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>10.3</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6479,14 +6474,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44398</v>
+        <v>45167</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6498,13 +6493,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6541,14 +6531,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>45512</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6561,7 +6551,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6598,14 +6588,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6617,13 +6607,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6660,14 +6645,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6679,8 +6664,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>6.1</v>
+        <v>7.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6717,14 +6707,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>44830</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6737,7 +6727,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6774,14 +6764,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45397</v>
+        <v>44398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6793,8 +6783,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>8.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6831,14 +6826,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45957</v>
+        <v>44257</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6850,8 +6845,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>10.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6888,14 +6888,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6907,13 +6907,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6950,14 +6945,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>45957</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6970,7 +6965,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7007,14 +7002,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7026,8 +7021,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>6.3</v>
+        <v>3.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7064,14 +7064,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45883</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>9.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7121,14 +7121,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>11.6</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7183,14 +7183,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>45397</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7240,14 +7240,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44456</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7259,13 +7259,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>15.7</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7302,14 +7297,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7322,7 +7317,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>13.2</v>
+        <v>6.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7359,14 +7354,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7378,8 +7373,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>11.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7416,14 +7416,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44404</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.1</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7473,14 +7473,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44526</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7644,14 +7644,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>45883</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44760</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.3</v>
+        <v>9.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7758,14 +7758,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>44456</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7777,8 +7777,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>3.9</v>
+        <v>15.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7836,11 +7841,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7877,14 +7882,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>45999</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7896,8 +7901,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.3</v>
+        <v>8.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7934,14 +7944,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>44404</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7954,7 +7964,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7991,14 +8001,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44272</v>
+        <v>44526</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8010,13 +8020,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8053,14 +8058,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8073,7 +8078,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8110,14 +8115,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44754</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8129,13 +8134,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8172,14 +8172,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45368</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8229,14 +8229,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>44760</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>9.1</v>
+        <v>0.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8286,14 +8286,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8305,13 +8305,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8348,14 +8343,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45999</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8367,13 +8362,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>8.6</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8410,14 +8400,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45666</v>
+        <v>44272</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8429,8 +8419,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8467,14 +8462,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45092</v>
+        <v>44754</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8486,8 +8481,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8524,14 +8524,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45653</v>
+        <v>45368</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8543,13 +8543,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8586,14 +8581,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45560</v>
+        <v>45666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8606,7 +8601,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8643,14 +8638,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44662</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8663,7 +8658,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8700,14 +8695,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45456</v>
+        <v>45092</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8720,7 +8715,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8757,14 +8752,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>45653</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8776,8 +8771,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8814,14 +8814,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>45560</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8871,14 +8871,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>44662</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8928,14 +8928,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44668</v>
+        <v>45456</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8985,14 +8985,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44427</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9042,14 +9042,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9099,14 +9099,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45429</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9156,14 +9156,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45534</v>
+        <v>44668</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9175,13 +9175,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9218,14 +9213,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45714</v>
+        <v>44427</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9238,7 +9233,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9275,14 +9270,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45608</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9295,7 +9290,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9332,14 +9327,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45434</v>
+        <v>45429</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9352,7 +9347,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9389,14 +9384,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>45534</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,8 +9403,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9446,14 +9446,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45714</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9503,14 +9503,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44511</v>
+        <v>45608</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9560,14 +9560,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44781</v>
+        <v>45434</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9617,14 +9617,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44512</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9674,14 +9674,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44263</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9693,13 +9693,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9736,14 +9731,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9756,7 +9751,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9793,14 +9788,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44978</v>
+        <v>44781</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9813,7 +9808,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9850,14 +9845,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45068</v>
+        <v>44512</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9870,7 +9865,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9907,14 +9902,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>44263</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9928,11 +9923,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>14.8</v>
+        <v>3.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9969,14 +9964,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9989,7 +9984,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10026,14 +10021,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>44978</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10046,7 +10041,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10083,14 +10078,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44988</v>
+        <v>45068</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10103,7 +10098,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10140,14 +10135,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45243</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10161,11 +10156,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.7</v>
+        <v>14.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10202,14 +10197,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45625</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10221,13 +10216,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>12.2</v>
+        <v>5.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10264,14 +10254,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10284,7 +10274,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10321,14 +10311,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>44988</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10341,7 +10331,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10378,14 +10368,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44622</v>
+        <v>45243</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10397,8 +10387,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10435,14 +10430,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45159.42875</v>
+        <v>45625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10454,8 +10449,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>7.3</v>
+        <v>12.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10492,14 +10492,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44386</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.3</v>
+        <v>5.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10549,14 +10549,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44790</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10606,14 +10606,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44887</v>
+        <v>44622</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10663,14 +10663,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>45159.42875</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10682,13 +10682,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10725,14 +10720,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10744,13 +10739,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10787,14 +10777,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>44790</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10807,7 +10797,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10844,14 +10834,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44634</v>
+        <v>44887</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10864,7 +10854,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10901,14 +10891,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10920,8 +10910,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10958,14 +10953,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45145</v>
+        <v>44263</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10977,8 +10972,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11015,14 +11015,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11072,14 +11072,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44909</v>
+        <v>44634</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11129,14 +11129,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45187</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11148,13 +11148,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11191,14 +11186,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44257</v>
+        <v>45145</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11210,13 +11205,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11253,14 +11243,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45446</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11273,7 +11263,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>9.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11310,14 +11300,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45615</v>
+        <v>44909</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11330,7 +11320,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11367,14 +11357,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45699</v>
+        <v>45187</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11386,8 +11376,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11424,14 +11419,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44994</v>
+        <v>44257</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11443,8 +11438,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11481,14 +11481,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>45446</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11538,14 +11538,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>45615</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11595,14 +11595,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44456</v>
+        <v>45699</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11614,13 +11614,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11657,14 +11652,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44530</v>
+        <v>44994</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11677,7 +11672,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11714,14 +11709,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11734,7 +11729,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11771,14 +11766,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11791,7 +11786,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11828,14 +11823,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45747</v>
+        <v>44456</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11847,8 +11842,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11885,14 +11885,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44410</v>
+        <v>44530</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11905,7 +11905,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11942,14 +11942,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44257</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11961,13 +11961,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12004,14 +11999,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45632</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12024,7 +12019,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12061,14 +12056,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45615</v>
+        <v>45747</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12081,7 +12076,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12118,14 +12113,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>44410</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12138,7 +12133,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12175,14 +12170,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>44257</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12194,8 +12189,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12232,14 +12232,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>45632</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1450,14 +1450,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 10355-2021</t>
+          <t>A 20271-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44257</v>
+        <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1469,13 +1469,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1512,14 +1507,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 20271-2022</t>
+          <t>A 10355-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44698</v>
+        <v>44257</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1531,8 +1526,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>44847</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1740,14 +1740,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 42386-2021</t>
+          <t>A 28051-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44427</v>
+        <v>44355</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1797,14 +1797,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28051-2021</t>
+          <t>A 28054-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1854,14 +1854,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 28054-2021</t>
+          <t>A 27986-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44355</v>
+        <v>44745</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1911,14 +1911,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 27986-2022</t>
+          <t>A 15776-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44745</v>
+        <v>44663</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1968,14 +1968,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 15776-2022</t>
+          <t>A 64839-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44663</v>
+        <v>44512</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2025,14 +2025,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 64839-2021</t>
+          <t>A 42386-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44512</v>
+        <v>44427</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>44264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44668</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44668</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44699</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2714,14 +2714,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 69169-2021</t>
+          <t>A 16116-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44530</v>
+        <v>44665</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.5</v>
+        <v>2.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2771,14 +2771,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 16116-2022</t>
+          <t>A 69169-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44665</v>
+        <v>44530</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>10.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>44341</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44668</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2942,14 +2942,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>44760</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2999,14 +2999,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44974</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3018,13 +3018,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>14.1</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3061,14 +3056,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>45159.42875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3081,7 +3076,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3118,14 +3113,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45692</v>
+        <v>45699</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3138,7 +3133,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3175,14 +3170,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45615</v>
+        <v>45694</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3195,7 +3190,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3232,14 +3227,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3252,7 +3247,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3289,14 +3284,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>45653</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3308,8 +3303,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>45397</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45264</v>
+        <v>45702</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3460,14 +3460,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3517,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3574,14 +3574,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45789</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3631,14 +3631,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44844</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3650,8 +3650,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>5.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3688,14 +3693,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45665</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3708,7 +3713,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3745,14 +3750,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45184</v>
+        <v>45883</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3765,7 +3770,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3802,14 +3807,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45628</v>
+        <v>45615</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3822,7 +3827,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3859,14 +3864,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44966</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3879,7 +3884,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3916,14 +3921,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45660</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3936,7 +3941,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3973,14 +3978,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3992,13 +3997,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4035,14 +4035,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44697</v>
+        <v>44386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4054,13 +4054,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4097,14 +4092,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>45632</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4117,7 +4112,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4154,14 +4149,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>44257</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4173,8 +4168,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4211,14 +4211,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24244-2025</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45796</v>
+        <v>45789</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4230,13 +4230,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4273,14 +4268,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4293,7 +4288,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4330,14 +4325,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45645</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,13 +4344,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4392,14 +4382,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45547</v>
+        <v>45796</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4413,11 +4403,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4454,14 +4444,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>44582</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4474,7 +4464,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.9</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4511,14 +4501,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44494</v>
+        <v>44582</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4531,7 +4521,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4568,14 +4558,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45677</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4588,7 +4578,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4625,14 +4615,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4644,8 +4634,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>31.3</v>
+        <v>7.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4682,14 +4677,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45628</v>
+        <v>44966</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4702,7 +4697,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4739,14 +4734,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45909</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4758,13 +4753,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4801,14 +4791,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45264</v>
+        <v>45660</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4821,7 +4811,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4858,14 +4848,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>45628</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4878,7 +4868,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4915,14 +4905,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4934,8 +4924,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4972,14 +4967,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44886</v>
+        <v>45184</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4991,13 +4986,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>19.4</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5034,14 +5024,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>44398</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5053,8 +5043,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>13.2</v>
+        <v>8.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5091,14 +5086,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5111,7 +5106,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5148,14 +5143,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>45547</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5167,8 +5162,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>44512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5281,8 +5281,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5319,14 +5324,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>45957</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5339,7 +5344,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5376,14 +5381,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>45909</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5395,8 +5400,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5433,14 +5443,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45664</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5453,7 +5463,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5490,14 +5500,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5509,8 +5519,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>11.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5547,14 +5562,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44354</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5566,13 +5581,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>31.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5609,14 +5619,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>45664</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5629,7 +5639,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5666,14 +5676,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5686,7 +5696,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5723,14 +5733,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45702</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5743,7 +5753,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5780,14 +5790,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5800,7 +5810,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5837,14 +5847,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5857,7 +5867,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5894,14 +5904,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5914,7 +5924,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5951,14 +5961,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45838</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5970,13 +5980,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6013,14 +6018,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6032,13 +6037,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6075,14 +6075,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44671</v>
+        <v>44886</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6094,8 +6094,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>19.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6132,14 +6137,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45694</v>
+        <v>44526</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6152,7 +6157,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6189,14 +6194,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44582</v>
+        <v>44671</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6209,7 +6214,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6246,14 +6251,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44582</v>
+        <v>44974</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6265,8 +6270,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>5.3</v>
+        <v>14.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6303,14 +6313,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>45560</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6323,7 +6333,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6360,14 +6370,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44663</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6380,7 +6390,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6417,14 +6427,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>44887</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6437,7 +6447,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6474,14 +6484,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45167</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6493,8 +6503,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6531,14 +6546,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45512</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6551,7 +6566,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6588,14 +6603,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>45838</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6607,8 +6622,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6645,14 +6665,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>44456</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6666,11 +6686,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6707,14 +6727,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44830</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6727,7 +6747,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>13.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6764,14 +6784,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44398</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6783,13 +6803,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6826,14 +6841,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44257</v>
+        <v>45187</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6851,7 +6866,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>10.3</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6888,14 +6903,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6908,7 +6923,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6945,14 +6960,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45957</v>
+        <v>45264</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6965,7 +6980,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7002,14 +7017,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>44263</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7023,11 +7038,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7064,14 +7079,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7084,7 +7099,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7121,14 +7136,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>45628</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7140,13 +7155,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7183,14 +7193,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45397</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7203,7 +7213,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7240,14 +7250,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7260,7 +7270,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>9.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7297,14 +7307,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>45512</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7317,7 +7327,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7354,14 +7364,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7375,11 +7385,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>11.6</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7416,14 +7426,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>44354</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7435,8 +7445,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7473,14 +7488,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>45645</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7492,8 +7507,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7530,14 +7550,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>45666</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7550,7 +7570,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7587,14 +7607,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>45999</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7606,8 +7626,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>8.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7644,14 +7669,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45883</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7664,7 +7689,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>9.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7701,14 +7726,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>45243</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7720,8 +7745,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>9.1</v>
+        <v>3.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7758,14 +7788,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44456</v>
+        <v>44257</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7779,11 +7809,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>15.7</v>
+        <v>10.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7820,14 +7850,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>44410</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7839,13 +7869,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7882,14 +7907,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45999</v>
+        <v>45665</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7901,13 +7926,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>8.6</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7944,14 +7964,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44404</v>
+        <v>44844</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7964,7 +7984,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8001,14 +8021,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44526</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8021,7 +8041,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8058,14 +8078,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8078,7 +8098,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8115,14 +8135,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>44404</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8135,7 +8155,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8172,14 +8192,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>45068</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8192,7 +8212,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8229,14 +8249,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44760</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8249,7 +8269,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.3</v>
+        <v>10.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8286,14 +8306,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45092</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8306,7 +8326,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8343,14 +8363,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8363,7 +8383,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8400,14 +8420,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44272</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8419,13 +8439,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8462,14 +8477,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44754</v>
+        <v>45747</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8481,13 +8496,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>8.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8524,14 +8534,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45368</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8544,7 +8554,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8581,14 +8591,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45666</v>
+        <v>44909</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8601,7 +8611,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8638,14 +8648,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8658,7 +8668,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>5.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8695,14 +8705,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45092</v>
+        <v>44994</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8715,7 +8725,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8752,14 +8762,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45653</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8771,13 +8781,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8814,14 +8819,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45560</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8834,7 +8839,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8871,14 +8876,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44662</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8891,7 +8896,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8928,14 +8933,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45456</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8948,7 +8953,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8985,14 +8990,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9005,7 +9010,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9042,14 +9047,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9062,7 +9067,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9099,14 +9104,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>44511</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9119,7 +9124,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9156,14 +9161,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44668</v>
+        <v>45429</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9176,7 +9181,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9213,14 +9218,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44427</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9233,7 +9238,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9270,14 +9275,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9290,7 +9295,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9327,14 +9332,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45429</v>
+        <v>45677</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9347,7 +9352,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9384,14 +9389,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45534</v>
+        <v>44830</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9403,13 +9408,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9446,14 +9446,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45714</v>
+        <v>45608</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9466,7 +9466,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9503,14 +9503,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45608</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9560,14 +9560,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45434</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9617,14 +9617,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>44668</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9637,7 +9637,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9674,14 +9674,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45167</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9731,14 +9731,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44511</v>
+        <v>44263</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,8 +9750,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9788,14 +9793,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44781</v>
+        <v>44662</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9808,7 +9813,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9845,14 +9850,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44512</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9865,7 +9870,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9902,14 +9907,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44263</v>
+        <v>44427</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9921,13 +9926,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9964,14 +9964,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>45534</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9983,8 +9983,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10021,14 +10026,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44978</v>
+        <v>44754</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10040,8 +10045,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10078,14 +10088,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45068</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10098,7 +10108,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10135,14 +10145,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>44663</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10154,13 +10164,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>14.8</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10197,14 +10202,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10217,7 +10222,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10254,14 +10259,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>45264</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10274,7 +10279,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10311,14 +10316,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44988</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10331,7 +10336,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10368,14 +10373,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45243</v>
+        <v>44781</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10387,13 +10392,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10430,14 +10430,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45625</v>
+        <v>44697</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10451,11 +10451,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>12.2</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10492,14 +10492,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10549,14 +10549,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10606,14 +10606,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44622</v>
+        <v>44978</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10663,14 +10663,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45159.42875</v>
+        <v>44272</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10682,8 +10682,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10720,14 +10725,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44386</v>
+        <v>44790</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10740,7 +10745,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10777,14 +10782,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44790</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10796,8 +10801,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10834,14 +10844,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44887</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10854,7 +10864,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10891,14 +10901,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>44634</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10910,13 +10920,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10953,14 +10958,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44263</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10972,13 +10977,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11015,14 +11015,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>45615</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11072,14 +11072,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44634</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11091,8 +11091,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>14.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11129,14 +11134,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>44494</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11149,7 +11154,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11186,14 +11191,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45145</v>
+        <v>45692</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11206,7 +11211,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11243,14 +11248,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>45145</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11263,7 +11268,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11300,14 +11305,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44909</v>
+        <v>44257</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11319,8 +11324,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11357,14 +11367,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45187</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11376,13 +11386,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11419,14 +11424,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44257</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11438,13 +11443,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11481,14 +11481,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45446</v>
+        <v>44622</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>9.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11538,14 +11538,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45615</v>
+        <v>45625</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11557,8 +11557,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>2.7</v>
+        <v>12.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11595,14 +11600,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45699</v>
+        <v>45456</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11615,7 +11620,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11652,14 +11657,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44994</v>
+        <v>44456</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11671,8 +11676,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>15.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11709,14 +11719,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11729,7 +11739,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11766,14 +11776,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>45434</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11786,7 +11796,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11823,14 +11833,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44456</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11842,13 +11852,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11885,14 +11890,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44530</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11905,7 +11910,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11942,14 +11947,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>44988</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11962,7 +11967,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11999,14 +12004,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12019,7 +12024,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12056,14 +12061,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45747</v>
+        <v>45368</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12076,7 +12081,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12113,14 +12118,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44410</v>
+        <v>44530</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12133,7 +12138,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12170,14 +12175,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44257</v>
+        <v>45714</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12189,13 +12194,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12232,14 +12232,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45632</v>
+        <v>45446</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44257</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44847</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1740,14 +1740,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28051-2021</t>
+          <t>A 42386-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44355</v>
+        <v>44427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1797,14 +1797,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 28054-2021</t>
+          <t>A 27986-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44355</v>
+        <v>44745</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1854,14 +1854,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 27986-2022</t>
+          <t>A 28051-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44745</v>
+        <v>44355</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1911,14 +1911,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 15776-2022</t>
+          <t>A 28054-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44663</v>
+        <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1968,14 +1968,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 64839-2021</t>
+          <t>A 15776-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44512</v>
+        <v>44663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2025,14 +2025,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42386-2021</t>
+          <t>A 64839-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44427</v>
+        <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>44264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44668</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44668</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44699</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2714,14 +2714,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 16116-2022</t>
+          <t>A 69169-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44665</v>
+        <v>44530</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>10.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2771,14 +2771,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 69169-2021</t>
+          <t>A 16116-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44530</v>
+        <v>44665</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>10.5</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2828,14 +2828,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25052-2021</t>
+          <t>A 16173-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44341</v>
+        <v>44668</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2885,14 +2885,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16173-2022</t>
+          <t>A 25052-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44668</v>
+        <v>44341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2942,14 +2942,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30305-2022</t>
+          <t>A 14057-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44760</v>
+        <v>45740.4009375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2999,14 +2999,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6666-2024</t>
+          <t>A 8125-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45341.75035879629</v>
+        <v>44974</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3018,8 +3018,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>14.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3056,14 +3061,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 37601-2023</t>
+          <t>A 49005-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45159.42875</v>
+        <v>45209.67546296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3076,7 +3081,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7.3</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3113,14 +3118,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6493-2025</t>
+          <t>A 5243-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45699</v>
+        <v>45692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3133,7 +3138,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3170,14 +3175,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5752-2025</t>
+          <t>A 46674-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45694</v>
+        <v>45198.48434027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3190,7 +3195,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3227,14 +3232,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 53653-2023</t>
+          <t>A 61388-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45230.60912037037</v>
+        <v>45264</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3247,7 +3252,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3284,14 +3289,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 61994-2024</t>
+          <t>A 61394-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45653</v>
+        <v>45264.64980324074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3303,13 +3308,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3346,14 +3346,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14770-2024</t>
+          <t>A 45797-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45397</v>
+        <v>44844</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7187-2025</t>
+          <t>A 744-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45702</v>
+        <v>45665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3460,14 +3460,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 47828-2025</t>
+          <t>A 9247-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45932.34612268519</v>
+        <v>45358.58592592592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3517,14 +3517,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59270-2023</t>
+          <t>A 61006-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45253.55388888889</v>
+        <v>45645</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3536,8 +3536,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3574,14 +3579,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48121-2025</t>
+          <t>A 19992-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45933.36171296296</v>
+        <v>44697</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3593,8 +3598,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3631,14 +3641,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48537-2025</t>
+          <t>A 61892-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45936.41018518519</v>
+        <v>44917.70034722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3650,13 +3660,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>5.6</v>
+        <v>10.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3693,14 +3698,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38302-2025</t>
+          <t>A 59715-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45883.46337962963</v>
+        <v>44494</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3713,7 +3718,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3750,14 +3755,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38299-2025</t>
+          <t>A 2690-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45883</v>
+        <v>45677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3770,7 +3775,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3807,14 +3812,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54054-2024</t>
+          <t>A 56982-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45615</v>
+        <v>45628</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3827,7 +3832,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3864,14 +3869,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14413-2023</t>
+          <t>A 61300-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45012.5225462963</v>
+        <v>45264</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3884,7 +3889,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3921,14 +3926,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13121-2024</t>
+          <t>A 12566-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45385.8783912037</v>
+        <v>45731.64170138889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3941,7 +3946,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3978,14 +3983,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57256-2024</t>
+          <t>A 54094-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45629.56054398148</v>
+        <v>45232.31501157407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3998,7 +4003,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4035,14 +4040,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 35600-2021</t>
+          <t>A 55187-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44386</v>
+        <v>44886</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4054,8 +4059,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.3</v>
+        <v>19.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4092,14 +4102,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58241-2024</t>
+          <t>A 669-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45632</v>
+        <v>45664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4112,7 +4122,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4149,14 +4159,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10362-2021</t>
+          <t>A 27793-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44257</v>
+        <v>44354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4170,11 +4180,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4211,14 +4221,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 22735-2025</t>
+          <t>A 26859-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45789</v>
+        <v>44349.60321759259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4231,7 +4241,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4268,14 +4278,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22738-2025</t>
+          <t>A 6518-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45789.59186342593</v>
+        <v>45699.6603587963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4288,7 +4298,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4325,14 +4335,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12405-2024</t>
+          <t>A 7187-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45379.39054398148</v>
+        <v>45702</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4345,7 +4355,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4382,14 +4392,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24244-2025</t>
+          <t>A 17708-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45796</v>
+        <v>45758.43435185185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4401,13 +4411,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4444,14 +4449,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 3113-2022</t>
+          <t>A 16447-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44582</v>
+        <v>44671</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4464,7 +4469,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4501,14 +4506,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 3128-2022</t>
+          <t>A 5752-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44582</v>
+        <v>45694</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4521,7 +4526,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4558,14 +4563,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 65255-2023</t>
+          <t>A 3113-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45290.69128472222</v>
+        <v>44582</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4578,7 +4583,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4615,14 +4620,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24145-2025</t>
+          <t>A 3128-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45796.64483796297</v>
+        <v>44582</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4634,13 +4639,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4677,14 +4677,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6680-2023</t>
+          <t>A 12650-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44966</v>
+        <v>45000.52891203704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4734,14 +4734,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 47648-2024</t>
+          <t>A 15711-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45588.37608796296</v>
+        <v>44663</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4791,14 +4791,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 494-2025</t>
+          <t>A 65748-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45660</v>
+        <v>44516.80796296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4848,14 +4848,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56977-2024</t>
+          <t>A 32440-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45628</v>
+        <v>45838</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4867,8 +4867,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4905,14 +4910,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55188-2022</t>
+          <t>A 39780-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44886.90611111111</v>
+        <v>45167</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,13 +4929,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4967,14 +4967,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43602-2023</t>
+          <t>A 32275-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45184</v>
+        <v>45512</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5024,14 +5024,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 37414-2021</t>
+          <t>A 42045-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44398</v>
+        <v>44830</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5043,13 +5043,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5086,14 +5081,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51989-2025</t>
+          <t>A 43156-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45952.57976851852</v>
+        <v>45909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5105,8 +5100,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>6.1</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5143,14 +5143,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38788-2024</t>
+          <t>A 10349-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45547</v>
+        <v>44257</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5164,11 +5164,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>10.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 64833-2021</t>
+          <t>A 35201-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44512</v>
+        <v>45853.39233796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52590-2025</t>
+          <t>A 48659-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45954.63483796296</v>
+        <v>45593.48681712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5281,13 +5281,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5324,14 +5319,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52958-2025</t>
+          <t>A 45154-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45957</v>
+        <v>45919.47606481481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5344,7 +5339,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5381,14 +5376,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43156-2025</t>
+          <t>A 53284-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45909</v>
+        <v>45614.38210648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5406,7 +5401,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5443,14 +5438,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54032-2025</t>
+          <t>A 45128-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45962.96883101852</v>
+        <v>45919.43583333334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5463,7 +5458,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5500,14 +5495,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 54470-2025</t>
+          <t>A 45143-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45965.57278935185</v>
+        <v>45919.46068287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,13 +5514,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>11.6</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5562,14 +5552,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 26044-2025</t>
+          <t>A 45116-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45804.70619212963</v>
+        <v>45919.4250925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5582,7 +5572,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>31.3</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5619,14 +5609,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 669-2025</t>
+          <t>A 14770-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45664</v>
+        <v>45397</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5639,7 +5629,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5676,14 +5666,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 45116-2025</t>
+          <t>A 59970-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45919.4250925926</v>
+        <v>44909.42104166667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5696,7 +5686,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5733,14 +5723,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45128-2025</t>
+          <t>A 61328-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45919.43583333334</v>
+        <v>45264.58667824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5753,7 +5743,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5790,14 +5780,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45143-2025</t>
+          <t>A 48121-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45919.46068287037</v>
+        <v>45933.36171296296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5810,7 +5800,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5847,14 +5837,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45154-2025</t>
+          <t>A 47828-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45919.47606481481</v>
+        <v>45932.34612268519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5867,7 +5857,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5904,14 +5894,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6528-2025</t>
+          <t>A 48537-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45699.66982638889</v>
+        <v>45936.41018518519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5923,8 +5913,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5961,14 +5956,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28067-2025</t>
+          <t>A 38302-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45817.67597222222</v>
+        <v>45883.46337962963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5981,7 +5976,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6018,14 +6013,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28069-2025</t>
+          <t>A 38299-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45817.67681712963</v>
+        <v>45883</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6038,7 +6033,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6075,14 +6070,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55187-2022</t>
+          <t>A 50011-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44886</v>
+        <v>44456</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6100,7 +6095,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>19.4</v>
+        <v>15.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6137,14 +6132,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 68237-2021</t>
+          <t>A 38066-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44526</v>
+        <v>44404</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6157,7 +6152,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6194,14 +6189,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16447-2022</t>
+          <t>A 68237-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44671</v>
+        <v>44526</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6214,7 +6209,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6251,14 +6246,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8125-2023</t>
+          <t>A 60046-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44974</v>
+        <v>44909.51736111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6270,13 +6265,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>14.1</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6313,14 +6303,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41490-2024</t>
+          <t>A 30323-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45560</v>
+        <v>45111.32628472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6333,7 +6323,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6370,14 +6360,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9247-2024</t>
+          <t>A 42279-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45358.58592592592</v>
+        <v>44427.33684027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6390,7 +6380,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6427,14 +6417,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55457-2022</t>
+          <t>A 30305-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44887</v>
+        <v>44760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6447,7 +6437,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6484,14 +6474,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58781-2025</t>
+          <t>A 3229-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45986.73283564814</v>
+        <v>45679.48306712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6503,13 +6493,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6546,14 +6531,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58194-2025</t>
+          <t>A 37414-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45983.86821759259</v>
+        <v>44398</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6565,8 +6550,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.6</v>
+        <v>8.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6603,14 +6593,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 32440-2025</t>
+          <t>A 14741-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45838</v>
+        <v>45742.65028935186</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6622,13 +6612,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6665,14 +6650,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50007-2021</t>
+          <t>A 51989-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44456</v>
+        <v>45952.57976851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6684,13 +6669,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6727,14 +6707,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58196-2025</t>
+          <t>A 52958-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45983.87262731481</v>
+        <v>45957</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6747,7 +6727,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>13.2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6784,14 +6764,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13595-2023</t>
+          <t>A 52590-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45006.57474537037</v>
+        <v>45954.63483796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6803,8 +6783,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6841,14 +6826,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43812-2023</t>
+          <t>A 13168-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45187</v>
+        <v>44272</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6862,11 +6847,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6903,14 +6888,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35201-2025</t>
+          <t>A 29573-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45853.39233796296</v>
+        <v>44754</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6922,8 +6907,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6960,14 +6950,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61388-2023</t>
+          <t>A 10679-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45264</v>
+        <v>45368</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6980,7 +6970,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7017,14 +7007,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11311-2021</t>
+          <t>A 54470-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44263</v>
+        <v>45965.57278935185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7042,7 +7032,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>11.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7079,14 +7069,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 59970-2022</t>
+          <t>A 54032-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44909.42104166667</v>
+        <v>45962.96883101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7099,7 +7089,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7136,14 +7126,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56982-2024</t>
+          <t>A 947-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45628</v>
+        <v>45666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7156,7 +7146,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7193,14 +7183,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12650-2023</t>
+          <t>A 26633-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45000.52891203704</v>
+        <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7213,7 +7203,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7250,14 +7240,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 2656-2026</t>
+          <t>A 61994-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46037.63155092593</v>
+        <v>45653</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,8 +7259,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7307,14 +7302,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32275-2024</t>
+          <t>A 58196-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45512</v>
+        <v>45983.87262731481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7327,7 +7322,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>13.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7364,14 +7359,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 2920-2026</t>
+          <t>A 41490-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46038.57665509259</v>
+        <v>45560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,13 +7378,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7426,14 +7416,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27793-2021</t>
+          <t>A 58194-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44354</v>
+        <v>45983.86821759259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,13 +7435,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7488,14 +7473,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61006-2024</t>
+          <t>A 15487-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45645</v>
+        <v>44662</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7507,13 +7492,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7550,14 +7530,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 947-2025</t>
+          <t>A 58781-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45666</v>
+        <v>45986.73283564814</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7569,8 +7549,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>7.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7607,14 +7592,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60880-2025</t>
+          <t>A 24083-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45999</v>
+        <v>45456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7626,13 +7611,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7669,14 +7649,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14057-2025</t>
+          <t>A 61320-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45740.4009375</v>
+        <v>45264.57714120371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7689,7 +7669,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7726,14 +7706,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56345-2023</t>
+          <t>A 13121-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45243</v>
+        <v>45385.8783912037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7745,13 +7725,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7788,14 +7763,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10349-2021</t>
+          <t>A 14420-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44257</v>
+        <v>45012.53770833334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7807,13 +7782,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>10.3</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7850,14 +7820,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 38785-2021</t>
+          <t>A 16178-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44410</v>
+        <v>44668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7870,7 +7840,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7907,14 +7877,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 744-2025</t>
+          <t>A 2656-2026</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45665</v>
+        <v>46037.63155092593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7927,7 +7897,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>9.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7964,14 +7934,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45797-2022</t>
+          <t>A 2920-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44844</v>
+        <v>46038.57665509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7983,8 +7953,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8021,14 +7996,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30323-2023</t>
+          <t>A 60880-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45111.32628472222</v>
+        <v>45999</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8040,8 +8015,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>8.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8078,14 +8058,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 63357-2025</t>
+          <t>A 42379-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46010.67253472222</v>
+        <v>44427</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8098,7 +8078,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8135,14 +8115,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38066-2021</t>
+          <t>A 53629-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44404</v>
+        <v>45230.59002314815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8155,7 +8135,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8192,14 +8172,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 21984-2023</t>
+          <t>A 19387-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45068</v>
+        <v>45429</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8212,7 +8192,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8249,14 +8229,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 61892-2022</t>
+          <t>A 36187-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44917.70034722222</v>
+        <v>45534</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8268,8 +8248,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>10.9</v>
+        <v>3.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8306,14 +8291,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 26633-2023</t>
+          <t>A 9238-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45092</v>
+        <v>45714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8363,14 +8348,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12566-2025</t>
+          <t>A 52433-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45731.64170138889</v>
+        <v>45608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8383,7 +8368,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8420,14 +8405,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 61394-2023</t>
+          <t>A 20067-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45264.64980324074</v>
+        <v>45434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8440,7 +8425,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8477,14 +8462,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 15569-2025</t>
+          <t>A 6698-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45747</v>
+        <v>44602.42467592593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8497,7 +8482,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8534,14 +8519,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59969-2022</t>
+          <t>A 7786-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44909.41993055555</v>
+        <v>45706.59180555555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8554,7 +8539,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8591,14 +8576,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 59980-2022</t>
+          <t>A 64461-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44909</v>
+        <v>44511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8611,7 +8596,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8648,14 +8633,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 29999-2023</t>
+          <t>A 63357-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45109.69238425926</v>
+        <v>46010.67253472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8668,7 +8653,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8705,14 +8690,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 11696-2023</t>
+          <t>A 32224-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44994</v>
+        <v>44781</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8725,7 +8710,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8762,14 +8747,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 16576-2024</t>
+          <t>A 64833-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45408.4725925926</v>
+        <v>44512</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8782,7 +8767,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8819,14 +8804,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 993-2026</t>
+          <t>A 11323-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46030.58844907407</v>
+        <v>44263</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8838,8 +8823,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8876,14 +8866,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 14420-2023</t>
+          <t>A 13595-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45012.53770833334</v>
+        <v>45006.57474537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8896,7 +8886,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8933,14 +8923,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 61320-2023</t>
+          <t>A 8818-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45264.57714120371</v>
+        <v>44978</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8953,7 +8943,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8990,14 +8980,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1012-2026</t>
+          <t>A 21984-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46030.60145833333</v>
+        <v>45068</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9010,7 +9000,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9047,14 +9037,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 65748-2021</t>
+          <t>A 5459-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44516.80796296296</v>
+        <v>44960.30481481482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9066,8 +9056,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>14.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9104,14 +9099,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 64461-2021</t>
+          <t>A 6528-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44511</v>
+        <v>45699.66982638889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9124,7 +9119,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9161,14 +9156,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 19387-2024</t>
+          <t>A 12405-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45429</v>
+        <v>45379.39054398148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9181,7 +9176,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9218,14 +9213,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 14741-2025</t>
+          <t>A 10617-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45742.65028935186</v>
+        <v>44988</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9238,7 +9233,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9275,14 +9270,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6698-2022</t>
+          <t>A 993-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44602.42467592593</v>
+        <v>46030.58844907407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9295,7 +9290,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9332,14 +9327,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 2690-2025</t>
+          <t>A 1012-2026</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45677</v>
+        <v>46030.60145833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9352,7 +9347,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9389,14 +9384,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 42045-2022</t>
+          <t>A 56345-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44830</v>
+        <v>45243</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9408,8 +9403,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9446,14 +9446,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52433-2024</t>
+          <t>A 56463-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45608</v>
+        <v>45625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9465,8 +9465,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>12.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9503,14 +9508,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 7786-2025</t>
+          <t>A 29999-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45706.59180555555</v>
+        <v>45109.69238425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9523,7 +9528,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9560,14 +9565,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 14406-2025</t>
+          <t>A 16576-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45741.47040509259</v>
+        <v>45408.4725925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9580,7 +9585,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9617,14 +9622,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 16178-2022</t>
+          <t>A 10286-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44668</v>
+        <v>44622</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9637,7 +9642,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9674,14 +9679,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 39780-2023</t>
+          <t>A 37601-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45167</v>
+        <v>45159.42875</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9694,7 +9699,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9731,14 +9736,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 11323-2021</t>
+          <t>A 35600-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9750,13 +9755,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9793,14 +9793,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 15487-2022</t>
+          <t>A 33809-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44662</v>
+        <v>44790</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9813,7 +9813,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9850,14 +9850,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60046-2022</t>
+          <t>A 55457-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44909.51736111111</v>
+        <v>44887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9907,14 +9907,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 42379-2021</t>
+          <t>A 55188-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44427</v>
+        <v>44886.90611111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9926,8 +9926,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9964,14 +9969,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 36187-2024</t>
+          <t>A 11311-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45534</v>
+        <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9989,7 +9994,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10026,14 +10031,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29573-2022</t>
+          <t>A 53653-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44754</v>
+        <v>45230.60912037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10045,13 +10050,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10088,14 +10088,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53629-2023</t>
+          <t>A 11744-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45230.59002314815</v>
+        <v>44634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10145,14 +10145,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15711-2022</t>
+          <t>A 45492-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44663</v>
+        <v>45194.46662037037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10202,14 +10202,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 17708-2025</t>
+          <t>A 35312-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45758.43435185185</v>
+        <v>45145</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10259,14 +10259,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 61300-2023</t>
+          <t>A 59969-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45264</v>
+        <v>44909.41993055555</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10316,14 +10316,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61328-2023</t>
+          <t>A 59980-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45264.58667824074</v>
+        <v>44909</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10373,14 +10373,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 32224-2022</t>
+          <t>A 43812-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44781</v>
+        <v>45187</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10390,6 +10390,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>ARBOGA</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -10430,14 +10435,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19992-2022</t>
+          <t>A 10366-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44697</v>
+        <v>44257</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10451,11 +10456,11 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10492,14 +10497,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 22697-2024</t>
+          <t>A 22439-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45448.32826388889</v>
+        <v>45446</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10512,7 +10517,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10549,14 +10554,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 42279-2021</t>
+          <t>A 53903-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44427.33684027778</v>
+        <v>45615</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10569,7 +10574,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10606,14 +10611,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8818-2023</t>
+          <t>A 6493-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44978</v>
+        <v>45699</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10626,7 +10631,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10663,14 +10668,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 13168-2021</t>
+          <t>A 11696-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44272</v>
+        <v>44994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10682,13 +10687,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10725,14 +10725,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33809-2022</t>
+          <t>A 59270-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44790</v>
+        <v>45253.55388888889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10745,7 +10745,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10782,14 +10782,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53284-2024</t>
+          <t>A 6666-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45614.38210648148</v>
+        <v>45341.75035879629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10801,13 +10801,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10844,14 +10839,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 48659-2024</t>
+          <t>A 50007-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45593.48681712963</v>
+        <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10863,8 +10858,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10901,14 +10901,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11744-2022</t>
+          <t>A 69168-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44634</v>
+        <v>44530</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10958,14 +10958,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 54094-2023</t>
+          <t>A 22697-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45232.31501157407</v>
+        <v>45448.32826388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11015,14 +11015,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53903-2024</t>
+          <t>A 14406-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45615</v>
+        <v>45741.47040509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11072,14 +11072,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 5459-2023</t>
+          <t>A 15569-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44960.30481481482</v>
+        <v>45747</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11091,13 +11091,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>14.8</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11134,14 +11129,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59715-2021</t>
+          <t>A 38785-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44494</v>
+        <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11154,7 +11149,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11191,14 +11186,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5243-2025</t>
+          <t>A 10362-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45692</v>
+        <v>44257</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11210,8 +11205,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11248,14 +11248,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 35312-2023</t>
+          <t>A 58241-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45145</v>
+        <v>45632</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11305,14 +11305,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 10366-2021</t>
+          <t>A 54054-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44257</v>
+        <v>45615</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11324,13 +11324,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11367,14 +11362,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 26859-2021</t>
+          <t>A 14413-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44349.60321759259</v>
+        <v>45012.5225462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11387,7 +11382,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11424,14 +11419,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 3229-2025</t>
+          <t>A 57256-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45679.48306712963</v>
+        <v>45629.56054398148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11444,7 +11439,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11481,14 +11476,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 10286-2022</t>
+          <t>A 22738-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44622</v>
+        <v>45789.59186342593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11501,7 +11496,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11538,14 +11533,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56463-2024</t>
+          <t>A 22735-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45625</v>
+        <v>45789</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11557,13 +11552,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>12.2</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11600,14 +11590,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 24083-2024</t>
+          <t>A 43602-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45456</v>
+        <v>45184</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11620,7 +11610,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11657,14 +11647,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 50011-2021</t>
+          <t>A 56977-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44456</v>
+        <v>45628</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11676,13 +11666,8 @@
           <t>ARBOGA</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>15.7</v>
+        <v>6.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11719,14 +11704,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 46674-2023</t>
+          <t>A 6680-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45198.48434027778</v>
+        <v>44966</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11739,7 +11724,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11776,14 +11761,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20067-2024</t>
+          <t>A 494-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45434</v>
+        <v>45660</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11796,7 +11781,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11833,14 +11818,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6518-2025</t>
+          <t>A 24145-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45699.6603587963</v>
+        <v>45796.64483796297</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11852,8 +11837,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11890,14 +11880,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49005-2023</t>
+          <t>A 65255-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45209.67546296296</v>
+        <v>45290.69128472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11910,7 +11900,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11947,14 +11937,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 10617-2023</t>
+          <t>A 47648-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44988</v>
+        <v>45588.37608796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11967,7 +11957,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12004,14 +11994,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 45492-2023</t>
+          <t>A 24244-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45194.46662037037</v>
+        <v>45796</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12023,8 +12013,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12061,14 +12056,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10679-2024</t>
+          <t>A 38788-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45368</v>
+        <v>45547</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12080,8 +12075,13 @@
           <t>ARBOGA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12118,14 +12118,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 69168-2021</t>
+          <t>A 26044-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44530</v>
+        <v>45804.70619212963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12138,7 +12138,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.2</v>
+        <v>31.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12175,14 +12175,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 9238-2025</t>
+          <t>A 28069-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45714</v>
+        <v>45817.67681712963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12232,14 +12232,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 22439-2024</t>
+          <t>A 28067-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45446</v>
+        <v>45817.67597222222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>9.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>

--- a/Översikt ARBOGA.xlsx
+++ b/Översikt ARBOGA.xlsx
@@ -575,7 +575,7 @@
         <v>44530</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45758.43244212963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>45666</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45434</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>44257</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>44319.37657407407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>44404</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>44642</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>44404</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         <v>44526</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         <v>44356</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>44698</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>44257</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         <v>44847</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44509</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>44573</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>44427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>44745</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>44355</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>44355</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44663</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>44512</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>44264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>44536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         <v>44668</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44668</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>44699</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         <v>44257</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44728.52351851852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44676</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>44336</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>44427.42277777778</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44325</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         <v>44530</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44665</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         <v>44668</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44341</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>45740.4009375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         <v>44974</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>45209.67546296296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>45692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
         <v>45198.48434027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         <v>45264</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         <v>45264.64980324074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
         <v>44844</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>45665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>45358.58592592592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45645</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44697</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44917.70034722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>44494</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>45677</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45628</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>45264</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>45731.64170138889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>45232.31501157407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>44886</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>45664</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>44354</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         <v>44349.60321759259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         <v>45699.6603587963</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>45702</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>45758.43435185185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>44671</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>45694</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4570,7 +4570,7 @@
         <v>44582</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         <v>44582</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4684,7 +4684,7 @@
         <v>45000.52891203704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>44663</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>44516.80796296296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>45838</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45167</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45512</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>44830</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45909</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>44257</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45853.39233796296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>45593.48681712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>45919.47606481481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45614.38210648148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         <v>45919.43583333334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5502,7 +5502,7 @@
         <v>45919.46068287037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>45919.4250925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>45397</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44909.42104166667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>45264.58667824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>45933.36171296296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>45932.34612268519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45936.41018518519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>45883.46337962963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>45883</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44456</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>44404</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6196,7 +6196,7 @@
         <v>44526</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
         <v>44909.51736111111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         <v>45111.32628472222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44427.33684027778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
         <v>44760</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>45679.48306712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6538,7 +6538,7 @@
         <v>44398</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>45742.65028935186</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>45952.57976851852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>45957</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>45954.63483796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6833,7 +6833,7 @@
         <v>44272</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44754</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         <v>45368</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
         <v>45965.57278935185</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         <v>45962.96883101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>45666</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>45092</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>45653</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45983.87262731481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45560</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>45983.86821759259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44662</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45986.73283564814</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>45456</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>45264.57714120371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7713,7 +7713,7 @@
         <v>45385.8783912037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
         <v>45012.53770833334</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         <v>44668</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
         <v>46037.63155092593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         <v>46038.57665509259</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>45999</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8065,7 +8065,7 @@
         <v>44427</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
         <v>45230.59002314815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8179,7 +8179,7 @@
         <v>45429</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         <v>45534</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>45714</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8355,7 +8355,7 @@
         <v>45608</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>45434</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>44602.42467592593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>45706.59180555555</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>44511</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>46010.67253472222</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
         <v>44781</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>44512</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44263</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>45006.57474537037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44978</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>45068</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44960.30481481482</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         <v>45699.66982638889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45379.39054398148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44988</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>46030.58844907407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>46030.60145833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>45243</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>45625</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45109.69238425926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>45408.4725925926</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44622</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>45159.42875</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>44386</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44790</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>44887</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44886.90611111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9976,7 +9976,7 @@
         <v>44263</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>45230.60912037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10095,7 +10095,7 @@
         <v>44634</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
         <v>45194.46662037037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10209,7 +10209,7 @@
         <v>45145</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44909.41993055555</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44909</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>45187</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44257</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45446</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>45615</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>45699</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44994</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>45253.55388888889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>45341.75035879629</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>44456</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44530</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>45448.32826388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>45741.47040509259</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11079,7 +11079,7 @@
         <v>45747</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>44410</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44257</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
         <v>45632</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11312,7 +11312,7 @@
         <v>45615</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>45012.5225462963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>45629.56054398148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>45789.59186342593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45789</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>45184</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45628</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44966</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>45660</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45796.64483796297</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45290.69128472222</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45588.37608796296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45796</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>45547</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>45804.70619212963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>45817.67681712963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12239,7 +12239,7 @@
         <v>45817.67597222222</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
